--- a/data/obtained_data/original_data.xlsx
+++ b/data/obtained_data/original_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,107 +514,107 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>822</v>
+        <v>632</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3.97</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>21800</v>
+        <v>22800</v>
       </c>
       <c r="I3" t="n">
-        <v>87.526</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
       </c>
       <c r="C4" t="n">
-        <v>632</v>
+        <v>359</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>2.73</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>22800</v>
+        <v>13300</v>
       </c>
       <c r="I4" t="n">
-        <v>77.2</v>
+        <v>68.416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>359</v>
+        <v>571</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2.73</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>9.9</v>
       </c>
       <c r="H5" t="n">
-        <v>13300</v>
+        <v>17800</v>
       </c>
       <c r="I5" t="n">
-        <v>68.416</v>
+        <v>62.538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
       </c>
       <c r="C6" t="n">
-        <v>571</v>
+        <v>488</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -623,29 +623,29 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1.89</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>9.9</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>17800</v>
+        <v>14600</v>
       </c>
       <c r="I6" t="n">
-        <v>62.538</v>
+        <v>78.04600000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -654,29 +654,29 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>22.1</v>
       </c>
       <c r="H7" t="n">
-        <v>14600</v>
+        <v>16900</v>
       </c>
       <c r="I7" t="n">
-        <v>78.04600000000001</v>
+        <v>79.602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -685,153 +685,153 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>22.1</v>
+        <v>10.3</v>
       </c>
       <c r="H8" t="n">
-        <v>16900</v>
+        <v>20800</v>
       </c>
       <c r="I8" t="n">
-        <v>79.602</v>
+        <v>79.655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>516</v>
+        <v>398</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>4.21</v>
       </c>
       <c r="G9" t="n">
-        <v>10.3</v>
+        <v>16.2</v>
       </c>
       <c r="H9" t="n">
-        <v>20800</v>
+        <v>11600</v>
       </c>
       <c r="I9" t="n">
-        <v>79.655</v>
+        <v>56.155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>398</v>
+        <v>490</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.21</v>
+        <v>3.39</v>
       </c>
       <c r="G10" t="n">
-        <v>16.2</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>11600</v>
+        <v>18500</v>
       </c>
       <c r="I10" t="n">
-        <v>56.155</v>
+        <v>69.565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>490</v>
+        <v>637</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>3.39</v>
+        <v>3.03</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>18500</v>
+        <v>16900</v>
       </c>
       <c r="I11" t="n">
-        <v>69.565</v>
+        <v>66.946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>637</v>
+        <v>404</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.03</v>
+        <v>3.5</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>9.9</v>
       </c>
       <c r="H12" t="n">
-        <v>16900</v>
+        <v>12400</v>
       </c>
       <c r="I12" t="n">
-        <v>66.946</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2015</v>
       </c>
       <c r="C13" t="n">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -840,91 +840,91 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="H13" t="n">
-        <v>12400</v>
+        <v>15600</v>
       </c>
       <c r="I13" t="n">
-        <v>67.98</v>
+        <v>67.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2015</v>
       </c>
       <c r="C14" t="n">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>2.47</v>
       </c>
       <c r="G14" t="n">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="H14" t="n">
-        <v>15600</v>
+        <v>11800</v>
       </c>
       <c r="I14" t="n">
-        <v>67.23</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2015</v>
       </c>
       <c r="C15" t="n">
-        <v>379</v>
+        <v>643</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2.47</v>
+        <v>2.66</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="H15" t="n">
-        <v>11800</v>
+        <v>15600</v>
       </c>
       <c r="I15" t="n">
-        <v>70.5</v>
+        <v>94.414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2015</v>
       </c>
       <c r="C16" t="n">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -933,91 +933,91 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>3.32</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="H16" t="n">
-        <v>15600</v>
+        <v>21600</v>
       </c>
       <c r="I16" t="n">
-        <v>94.414</v>
+        <v>90.173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2015</v>
       </c>
       <c r="C17" t="n">
-        <v>523</v>
+        <v>286</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.32</v>
+        <v>2.65</v>
       </c>
       <c r="G17" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="H17" t="n">
-        <v>21600</v>
+        <v>14100</v>
       </c>
       <c r="I17" t="n">
-        <v>90.173</v>
+        <v>60.278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2015</v>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>459</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>14100</v>
+        <v>15600</v>
       </c>
       <c r="I18" t="n">
-        <v>60.278</v>
+        <v>63.514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,29 +1026,29 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>3.88</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="I19" t="n">
-        <v>63.514</v>
+        <v>53.781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1057,29 +1057,29 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>3.88</v>
+        <v>2.15</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H20" t="n">
-        <v>14500</v>
+        <v>22200</v>
       </c>
       <c r="I20" t="n">
-        <v>53.781</v>
+        <v>86.553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2015</v>
       </c>
       <c r="C21" t="n">
-        <v>500</v>
+        <v>728</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1088,60 +1088,60 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.89</v>
+        <v>1.36</v>
       </c>
       <c r="G21" t="n">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
-        <v>21300</v>
+        <v>25200</v>
       </c>
       <c r="I21" t="n">
-        <v>85.22499999999999</v>
+        <v>73.718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2015</v>
       </c>
       <c r="C22" t="n">
-        <v>451</v>
+        <v>259</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="H22" t="n">
-        <v>22200</v>
+        <v>8900</v>
       </c>
       <c r="I22" t="n">
-        <v>86.553</v>
+        <v>55.696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="n">
-        <v>728</v>
+        <v>339</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1150,60 +1150,60 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>25200</v>
+        <v>15300</v>
       </c>
       <c r="I23" t="n">
-        <v>73.718</v>
+        <v>73.56999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2016</v>
       </c>
       <c r="C24" t="n">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H24" t="n">
-        <v>15300</v>
+        <v>23500</v>
       </c>
       <c r="I24" t="n">
-        <v>73.56999999999999</v>
+        <v>77.224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2016</v>
       </c>
       <c r="C25" t="n">
-        <v>830</v>
+        <v>376</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1212,29 +1212,29 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.91</v>
+        <v>2.97</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H25" t="n">
-        <v>21800</v>
+        <v>13700</v>
       </c>
       <c r="I25" t="n">
-        <v>87.642</v>
+        <v>68.563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2016</v>
       </c>
       <c r="C26" t="n">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="H26" t="n">
-        <v>23500</v>
+        <v>18300</v>
       </c>
       <c r="I26" t="n">
-        <v>77.224</v>
+        <v>62.737</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2016</v>
       </c>
       <c r="C27" t="n">
-        <v>376</v>
+        <v>498</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2.97</v>
+        <v>4.17</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>23.9</v>
       </c>
       <c r="H27" t="n">
-        <v>13700</v>
+        <v>14600</v>
       </c>
       <c r="I27" t="n">
-        <v>68.563</v>
+        <v>78.387</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>580</v>
+        <v>464</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1305,29 +1305,29 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>8.4</v>
+        <v>19.6</v>
       </c>
       <c r="H28" t="n">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="I28" t="n">
-        <v>62.737</v>
+        <v>79.84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2016</v>
       </c>
       <c r="C29" t="n">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1336,91 +1336,91 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="G29" t="n">
-        <v>23.9</v>
+        <v>10.1</v>
       </c>
       <c r="H29" t="n">
-        <v>14600</v>
+        <v>21200</v>
       </c>
       <c r="I29" t="n">
-        <v>78.387</v>
+        <v>79.917</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2016</v>
       </c>
       <c r="C30" t="n">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.87</v>
+        <v>4.31</v>
       </c>
       <c r="G30" t="n">
-        <v>19.6</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>17200</v>
+        <v>12100</v>
       </c>
       <c r="I30" t="n">
-        <v>79.84</v>
+        <v>56.403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2016</v>
       </c>
       <c r="C31" t="n">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>3.51</v>
       </c>
       <c r="G31" t="n">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="H31" t="n">
-        <v>21200</v>
+        <v>19000</v>
       </c>
       <c r="I31" t="n">
-        <v>79.917</v>
+        <v>69.855</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2016</v>
       </c>
       <c r="C32" t="n">
-        <v>409</v>
+        <v>649</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1429,29 +1429,29 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="G32" t="n">
         <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>12100</v>
+        <v>17800</v>
       </c>
       <c r="I32" t="n">
-        <v>56.403</v>
+        <v>66.881</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>501</v>
+        <v>410</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1460,122 +1460,122 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3.51</v>
+        <v>3.58</v>
       </c>
       <c r="G33" t="n">
-        <v>11.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>19000</v>
+        <v>12900</v>
       </c>
       <c r="I33" t="n">
-        <v>69.855</v>
+        <v>68.021</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2016</v>
       </c>
       <c r="C34" t="n">
-        <v>649</v>
+        <v>442</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.91</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="H34" t="n">
-        <v>17800</v>
+        <v>16300</v>
       </c>
       <c r="I34" t="n">
-        <v>66.881</v>
+        <v>67.366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>410</v>
+        <v>815</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>3.58</v>
+        <v>1.66</v>
       </c>
       <c r="G35" t="n">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="H35" t="n">
-        <v>12900</v>
+        <v>28600</v>
       </c>
       <c r="I35" t="n">
-        <v>68.021</v>
+        <v>90.45999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.92</v>
+        <v>2.53</v>
       </c>
       <c r="G36" t="n">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>16300</v>
+        <v>12100</v>
       </c>
       <c r="I36" t="n">
-        <v>67.366</v>
+        <v>70.779</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2016</v>
       </c>
       <c r="C37" t="n">
-        <v>815</v>
+        <v>643</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1584,91 +1584,91 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1.66</v>
+        <v>2.65</v>
       </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H37" t="n">
-        <v>28600</v>
+        <v>16000</v>
       </c>
       <c r="I37" t="n">
-        <v>90.45999999999999</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>381</v>
+        <v>520</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2.53</v>
+        <v>3.35</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>12100</v>
+        <v>21400</v>
       </c>
       <c r="I38" t="n">
-        <v>70.779</v>
+        <v>90.63500000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>643</v>
+        <v>307</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="G39" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
-        <v>16000</v>
+        <v>14300</v>
       </c>
       <c r="I39" t="n">
-        <v>94.48</v>
+        <v>60.178</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1677,60 +1677,60 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="H40" t="n">
-        <v>21400</v>
+        <v>15900</v>
       </c>
       <c r="I40" t="n">
-        <v>90.63500000000001</v>
+        <v>64.086</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>2.72</v>
+        <v>3.88</v>
       </c>
       <c r="G41" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="I41" t="n">
-        <v>60.178</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1739,29 +1739,29 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="G42" t="n">
-        <v>11.5</v>
+        <v>7.1</v>
       </c>
       <c r="H42" t="n">
-        <v>15900</v>
+        <v>22100</v>
       </c>
       <c r="I42" t="n">
-        <v>64.086</v>
+        <v>86.852</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
       </c>
       <c r="C43" t="n">
-        <v>457</v>
+        <v>754</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1770,29 +1770,29 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>3.88</v>
+        <v>2.4</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>14900</v>
+        <v>24500</v>
       </c>
       <c r="I43" t="n">
-        <v>54.02</v>
+        <v>81.485</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>504</v>
+        <v>723</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1801,122 +1801,122 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.08</v>
+        <v>1.38</v>
       </c>
       <c r="G44" t="n">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>21700</v>
+        <v>25000</v>
       </c>
       <c r="I44" t="n">
-        <v>85.27500000000001</v>
+        <v>73.739</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>447</v>
+        <v>268</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="G45" t="n">
-        <v>7.1</v>
+        <v>16.5</v>
       </c>
       <c r="H45" t="n">
-        <v>22100</v>
+        <v>9000</v>
       </c>
       <c r="I45" t="n">
-        <v>86.852</v>
+        <v>55.81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C46" t="n">
-        <v>754</v>
+        <v>489</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="G46" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
-        <v>24500</v>
+        <v>16300</v>
       </c>
       <c r="I46" t="n">
-        <v>81.485</v>
+        <v>73.675</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C47" t="n">
-        <v>723</v>
+        <v>627</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>25000</v>
+        <v>24100</v>
       </c>
       <c r="I47" t="n">
-        <v>73.739</v>
+        <v>77.261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2017</v>
       </c>
       <c r="C48" t="n">
-        <v>489</v>
+        <v>390</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1925,60 +1925,60 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.01</v>
+        <v>2.86</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
-        <v>16300</v>
+        <v>14200</v>
       </c>
       <c r="I48" t="n">
-        <v>73.675</v>
+        <v>68.717</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2017</v>
       </c>
       <c r="C49" t="n">
-        <v>820</v>
+        <v>573</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3.67</v>
+        <v>1.75</v>
       </c>
       <c r="G49" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="H49" t="n">
-        <v>22700</v>
+        <v>18600</v>
       </c>
       <c r="I49" t="n">
-        <v>87.75700000000001</v>
+        <v>62.947</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2017</v>
       </c>
       <c r="C50" t="n">
-        <v>627</v>
+        <v>504</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1987,60 +1987,60 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>4.39</v>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>21.8</v>
       </c>
       <c r="H50" t="n">
-        <v>24100</v>
+        <v>15200</v>
       </c>
       <c r="I50" t="n">
-        <v>77.261</v>
+        <v>78.724</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2.86</v>
+        <v>1.84</v>
       </c>
       <c r="G51" t="n">
-        <v>5.8</v>
+        <v>17.2</v>
       </c>
       <c r="H51" t="n">
-        <v>14200</v>
+        <v>18100</v>
       </c>
       <c r="I51" t="n">
-        <v>68.717</v>
+        <v>80.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2017</v>
       </c>
       <c r="C52" t="n">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2049,91 +2049,91 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1.75</v>
+        <v>2.31</v>
       </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="H52" t="n">
-        <v>18600</v>
+        <v>21500</v>
       </c>
       <c r="I52" t="n">
-        <v>62.947</v>
+        <v>80.18000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>424</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="G53" t="n">
-        <v>21.8</v>
+        <v>11.1</v>
       </c>
       <c r="H53" t="n">
-        <v>15200</v>
+        <v>12700</v>
       </c>
       <c r="I53" t="n">
-        <v>78.724</v>
+        <v>56.667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.84</v>
+        <v>3.34</v>
       </c>
       <c r="G54" t="n">
-        <v>17.2</v>
+        <v>11.3</v>
       </c>
       <c r="H54" t="n">
-        <v>18100</v>
+        <v>19700</v>
       </c>
       <c r="I54" t="n">
-        <v>80.08</v>
+        <v>70.14400000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2017</v>
       </c>
       <c r="C55" t="n">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2142,60 +2142,60 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2.31</v>
+        <v>2.97</v>
       </c>
       <c r="G55" t="n">
-        <v>9.4</v>
+        <v>11.1</v>
       </c>
       <c r="H55" t="n">
-        <v>21500</v>
+        <v>18600</v>
       </c>
       <c r="I55" t="n">
-        <v>80.18000000000001</v>
+        <v>66.836</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2017</v>
       </c>
       <c r="C56" t="n">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4.33</v>
+        <v>3.49</v>
       </c>
       <c r="G56" t="n">
-        <v>11.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>12700</v>
+        <v>13700</v>
       </c>
       <c r="I56" t="n">
-        <v>56.667</v>
+        <v>68.075</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2017</v>
       </c>
       <c r="C57" t="n">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2204,29 +2204,29 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3.34</v>
+        <v>1.91</v>
       </c>
       <c r="G57" t="n">
-        <v>11.3</v>
+        <v>7.1</v>
       </c>
       <c r="H57" t="n">
-        <v>19700</v>
+        <v>17400</v>
       </c>
       <c r="I57" t="n">
-        <v>70.14400000000001</v>
+        <v>67.51600000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2017</v>
       </c>
       <c r="C58" t="n">
-        <v>642</v>
+        <v>798</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2235,29 +2235,29 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>2.97</v>
+        <v>1.64</v>
       </c>
       <c r="G58" t="n">
-        <v>11.1</v>
+        <v>5.5</v>
       </c>
       <c r="H58" t="n">
-        <v>18600</v>
+        <v>29400</v>
       </c>
       <c r="I58" t="n">
-        <v>66.836</v>
+        <v>90.727</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2017</v>
       </c>
       <c r="C59" t="n">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2266,29 +2266,29 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>3.49</v>
+        <v>2.44</v>
       </c>
       <c r="G59" t="n">
-        <v>8.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="I59" t="n">
-        <v>68.075</v>
+        <v>71.062</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>453</v>
+        <v>667</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2297,29 +2297,29 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1.91</v>
+        <v>2.54</v>
       </c>
       <c r="G60" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="I60" t="n">
-        <v>67.51600000000001</v>
+        <v>94.54600000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>798</v>
+        <v>513</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2328,29 +2328,29 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1.64</v>
+        <v>3.34</v>
       </c>
       <c r="G61" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H61" t="n">
-        <v>29400</v>
+        <v>22200</v>
       </c>
       <c r="I61" t="n">
-        <v>90.727</v>
+        <v>91.077</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2359,29 +2359,29 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.44</v>
+        <v>2.69</v>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
-        <v>12500</v>
+        <v>15100</v>
       </c>
       <c r="I62" t="n">
-        <v>71.062</v>
+        <v>60.105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2017</v>
       </c>
       <c r="C63" t="n">
-        <v>667</v>
+        <v>484</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2390,29 +2390,29 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="I63" t="n">
-        <v>94.54600000000001</v>
+        <v>64.652</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2017</v>
       </c>
       <c r="C64" t="n">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2421,60 +2421,60 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="G64" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H64" t="n">
-        <v>22200</v>
+        <v>15500</v>
       </c>
       <c r="I64" t="n">
-        <v>91.077</v>
+        <v>54.273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2017</v>
       </c>
       <c r="C65" t="n">
-        <v>315</v>
+        <v>452</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2.69</v>
+        <v>2.11</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="H65" t="n">
-        <v>15100</v>
+        <v>22400</v>
       </c>
       <c r="I65" t="n">
-        <v>60.105</v>
+        <v>87.146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2017</v>
       </c>
       <c r="C66" t="n">
-        <v>484</v>
+        <v>748</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2483,60 +2483,60 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="G66" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>16300</v>
+        <v>25900</v>
       </c>
       <c r="I66" t="n">
-        <v>64.652</v>
+        <v>81.871</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>471</v>
+        <v>709</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3.67</v>
+        <v>1.38</v>
       </c>
       <c r="G67" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
-        <v>15500</v>
+        <v>24900</v>
       </c>
       <c r="I67" t="n">
-        <v>54.273</v>
+        <v>73.761</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2017</v>
       </c>
       <c r="C68" t="n">
-        <v>510</v>
+        <v>306</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2545,91 +2545,91 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="G68" t="n">
-        <v>8.699999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="H68" t="n">
-        <v>22200</v>
+        <v>9300</v>
       </c>
       <c r="I68" t="n">
-        <v>85.325</v>
+        <v>55.942</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C69" t="n">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="G69" t="n">
-        <v>6.8</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
-        <v>22400</v>
+        <v>16900</v>
       </c>
       <c r="I69" t="n">
-        <v>87.146</v>
+        <v>73.792</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C70" t="n">
-        <v>748</v>
+        <v>606</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>2.28</v>
+        <v>1.77</v>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
-        <v>25900</v>
+        <v>24800</v>
       </c>
       <c r="I70" t="n">
-        <v>81.871</v>
+        <v>77.312</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C71" t="n">
-        <v>709</v>
+        <v>405</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2638,91 +2638,91 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.38</v>
+        <v>2.73</v>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="H71" t="n">
-        <v>24900</v>
+        <v>15000</v>
       </c>
       <c r="I71" t="n">
-        <v>73.761</v>
+        <v>68.88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2018</v>
       </c>
       <c r="C72" t="n">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H72" t="n">
-        <v>16900</v>
+        <v>19200</v>
       </c>
       <c r="I72" t="n">
-        <v>73.792</v>
+        <v>63.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>2018</v>
       </c>
       <c r="C73" t="n">
-        <v>814</v>
+        <v>515</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>3.62</v>
+        <v>4.12</v>
       </c>
       <c r="G73" t="n">
-        <v>5.1</v>
+        <v>19.7</v>
       </c>
       <c r="H73" t="n">
-        <v>23500</v>
+        <v>15600</v>
       </c>
       <c r="I73" t="n">
-        <v>87.874</v>
+        <v>79.05800000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2018</v>
       </c>
       <c r="C74" t="n">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -2731,122 +2731,122 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>15.3</v>
       </c>
       <c r="H74" t="n">
-        <v>24800</v>
+        <v>18400</v>
       </c>
       <c r="I74" t="n">
-        <v>77.312</v>
+        <v>80.321</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2018</v>
       </c>
       <c r="C75" t="n">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>2.73</v>
+        <v>2.37</v>
       </c>
       <c r="G75" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>15000</v>
+        <v>21800</v>
       </c>
       <c r="I75" t="n">
-        <v>68.88</v>
+        <v>80.444</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2018</v>
       </c>
       <c r="C76" t="n">
-        <v>595</v>
+        <v>443</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1.56</v>
+        <v>4.36</v>
       </c>
       <c r="G76" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>19200</v>
+        <v>13300</v>
       </c>
       <c r="I76" t="n">
-        <v>63.17</v>
+        <v>56.947</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>4.12</v>
+        <v>3.31</v>
       </c>
       <c r="G77" t="n">
-        <v>19.7</v>
+        <v>10.6</v>
       </c>
       <c r="H77" t="n">
-        <v>15600</v>
+        <v>20100</v>
       </c>
       <c r="I77" t="n">
-        <v>79.05800000000001</v>
+        <v>70.438</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2018</v>
       </c>
       <c r="C78" t="n">
-        <v>475</v>
+        <v>662</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2855,184 +2855,184 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>1.83</v>
+        <v>2.83</v>
       </c>
       <c r="G78" t="n">
-        <v>15.3</v>
+        <v>8.4</v>
       </c>
       <c r="H78" t="n">
-        <v>18400</v>
+        <v>19200</v>
       </c>
       <c r="I78" t="n">
-        <v>80.321</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2018</v>
       </c>
       <c r="C79" t="n">
-        <v>557</v>
+        <v>407</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.37</v>
+        <v>3.37</v>
       </c>
       <c r="G79" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="H79" t="n">
-        <v>21800</v>
+        <v>14300</v>
       </c>
       <c r="I79" t="n">
-        <v>80.444</v>
+        <v>68.142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2018</v>
       </c>
       <c r="C80" t="n">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>4.36</v>
+        <v>1.98</v>
       </c>
       <c r="G80" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="H80" t="n">
-        <v>13300</v>
+        <v>18200</v>
       </c>
       <c r="I80" t="n">
-        <v>56.947</v>
+        <v>67.679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2018</v>
       </c>
       <c r="C81" t="n">
-        <v>502</v>
+        <v>803</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>3.31</v>
+        <v>1.71</v>
       </c>
       <c r="G81" t="n">
-        <v>10.6</v>
+        <v>5.6</v>
       </c>
       <c r="H81" t="n">
-        <v>20100</v>
+        <v>30500</v>
       </c>
       <c r="I81" t="n">
-        <v>70.438</v>
+        <v>90.98099999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2018</v>
       </c>
       <c r="C82" t="n">
-        <v>662</v>
+        <v>384</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>2.83</v>
+        <v>2.32</v>
       </c>
       <c r="G82" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
-        <v>19200</v>
+        <v>13100</v>
       </c>
       <c r="I82" t="n">
-        <v>66.81</v>
+        <v>71.351</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2018</v>
       </c>
       <c r="C83" t="n">
-        <v>407</v>
+        <v>673</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>3.37</v>
+        <v>2.44</v>
       </c>
       <c r="G83" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>14300</v>
+        <v>17400</v>
       </c>
       <c r="I83" t="n">
-        <v>68.142</v>
+        <v>94.61199999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2018</v>
       </c>
       <c r="C84" t="n">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -3041,91 +3041,91 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>1.98</v>
+        <v>3.34</v>
       </c>
       <c r="G84" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
-        <v>18200</v>
+        <v>23100</v>
       </c>
       <c r="I84" t="n">
-        <v>67.679</v>
+        <v>91.48999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2018</v>
       </c>
       <c r="C85" t="n">
-        <v>803</v>
+        <v>329</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1.71</v>
+        <v>2.7</v>
       </c>
       <c r="G85" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
-        <v>30500</v>
+        <v>15800</v>
       </c>
       <c r="I85" t="n">
-        <v>90.98099999999999</v>
+        <v>60.058</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>384</v>
+        <v>504</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H86" t="n">
-        <v>13100</v>
+        <v>17100</v>
       </c>
       <c r="I86" t="n">
-        <v>71.351</v>
+        <v>65.211</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2018</v>
       </c>
       <c r="C87" t="n">
-        <v>673</v>
+        <v>486</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -3134,29 +3134,29 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="I87" t="n">
-        <v>94.61199999999999</v>
+        <v>54.541</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2018</v>
       </c>
       <c r="C88" t="n">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3165,122 +3165,122 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>3.34</v>
+        <v>2.09</v>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="H88" t="n">
-        <v>23100</v>
+        <v>22700</v>
       </c>
       <c r="I88" t="n">
-        <v>91.48999999999999</v>
+        <v>87.431</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2018</v>
       </c>
       <c r="C89" t="n">
-        <v>329</v>
+        <v>739</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
-        <v>15800</v>
+        <v>26500</v>
       </c>
       <c r="I89" t="n">
-        <v>60.058</v>
+        <v>82.248</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2018</v>
       </c>
       <c r="C90" t="n">
-        <v>504</v>
+        <v>706</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2.57</v>
+        <v>1.4</v>
       </c>
       <c r="G90" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
-        <v>17100</v>
+        <v>25200</v>
       </c>
       <c r="I90" t="n">
-        <v>65.211</v>
+        <v>73.797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2018</v>
       </c>
       <c r="C91" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="G91" t="n">
-        <v>5.1</v>
+        <v>13.8</v>
       </c>
       <c r="H91" t="n">
-        <v>16200</v>
+        <v>9700</v>
       </c>
       <c r="I91" t="n">
-        <v>54.541</v>
+        <v>56.092</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C92" t="n">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3289,29 +3289,29 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.93</v>
+        <v>2.04</v>
       </c>
       <c r="G92" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>22800</v>
+        <v>17600</v>
       </c>
       <c r="I92" t="n">
-        <v>85.38200000000001</v>
+        <v>73.92100000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C93" t="n">
-        <v>434</v>
+        <v>609</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -3320,153 +3320,153 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>22700</v>
+        <v>25200</v>
       </c>
       <c r="I93" t="n">
-        <v>87.431</v>
+        <v>77.376</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C94" t="n">
-        <v>739</v>
+        <v>369</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>2.18</v>
+        <v>3.18</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H94" t="n">
-        <v>26500</v>
+        <v>15600</v>
       </c>
       <c r="I94" t="n">
-        <v>82.248</v>
+        <v>69.051</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C95" t="n">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H95" t="n">
-        <v>25200</v>
+        <v>19500</v>
       </c>
       <c r="I95" t="n">
-        <v>73.797</v>
+        <v>63.405</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>2019</v>
       </c>
       <c r="C96" t="n">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>2.04</v>
+        <v>4.2</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>17.9</v>
       </c>
       <c r="H96" t="n">
-        <v>17600</v>
+        <v>15800</v>
       </c>
       <c r="I96" t="n">
-        <v>73.92100000000001</v>
+        <v>79.38800000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>2019</v>
       </c>
       <c r="C97" t="n">
-        <v>844</v>
+        <v>472</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>14.1</v>
       </c>
       <c r="H97" t="n">
-        <v>23700</v>
+        <v>18800</v>
       </c>
       <c r="I97" t="n">
-        <v>87.994</v>
+        <v>80.565</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -3475,29 +3475,29 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>1.76</v>
+        <v>2.31</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="H98" t="n">
-        <v>25200</v>
+        <v>22500</v>
       </c>
       <c r="I98" t="n">
-        <v>77.376</v>
+        <v>80.709</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2019</v>
       </c>
       <c r="C99" t="n">
-        <v>369</v>
+        <v>459</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3506,60 +3506,60 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>3.18</v>
+        <v>4.24</v>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="H99" t="n">
-        <v>15600</v>
+        <v>13900</v>
       </c>
       <c r="I99" t="n">
-        <v>69.051</v>
+        <v>57.242</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>620</v>
+        <v>503</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1.41</v>
+        <v>3.24</v>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="H100" t="n">
-        <v>19500</v>
+        <v>20600</v>
       </c>
       <c r="I100" t="n">
-        <v>63.405</v>
+        <v>70.736</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2019</v>
       </c>
       <c r="C101" t="n">
-        <v>524</v>
+        <v>664</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -3568,91 +3568,91 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="G101" t="n">
-        <v>17.9</v>
+        <v>7.2</v>
       </c>
       <c r="H101" t="n">
-        <v>15800</v>
+        <v>19900</v>
       </c>
       <c r="I101" t="n">
-        <v>79.38800000000001</v>
+        <v>66.80500000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2019</v>
       </c>
       <c r="C102" t="n">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.77</v>
+        <v>2.94</v>
       </c>
       <c r="G102" t="n">
-        <v>14.1</v>
+        <v>6.3</v>
       </c>
       <c r="H102" t="n">
-        <v>18800</v>
+        <v>14600</v>
       </c>
       <c r="I102" t="n">
-        <v>80.565</v>
+        <v>68.22199999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>555</v>
+        <v>469</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2.31</v>
+        <v>1.88</v>
       </c>
       <c r="G103" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="H103" t="n">
-        <v>22500</v>
+        <v>19100</v>
       </c>
       <c r="I103" t="n">
-        <v>80.709</v>
+        <v>67.855</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2019</v>
       </c>
       <c r="C104" t="n">
-        <v>459</v>
+        <v>791</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -3661,29 +3661,29 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>4.24</v>
+        <v>1.74</v>
       </c>
       <c r="G104" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="H104" t="n">
-        <v>13900</v>
+        <v>30200</v>
       </c>
       <c r="I104" t="n">
-        <v>57.242</v>
+        <v>91.223</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3692,29 +3692,29 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3.24</v>
+        <v>2.3</v>
       </c>
       <c r="G105" t="n">
-        <v>9.9</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
-        <v>20600</v>
+        <v>13700</v>
       </c>
       <c r="I105" t="n">
-        <v>70.736</v>
+        <v>71.64400000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -3723,91 +3723,91 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="G106" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
-        <v>19900</v>
+        <v>17900</v>
       </c>
       <c r="I106" t="n">
-        <v>66.80500000000001</v>
+        <v>94.678</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2019</v>
       </c>
       <c r="C107" t="n">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>2.94</v>
+        <v>3.39</v>
       </c>
       <c r="G107" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H107" t="n">
-        <v>14600</v>
+        <v>23400</v>
       </c>
       <c r="I107" t="n">
-        <v>68.22199999999999</v>
+        <v>91.876</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2019</v>
       </c>
       <c r="C108" t="n">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="G108" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
-        <v>19100</v>
+        <v>16500</v>
       </c>
       <c r="I108" t="n">
-        <v>67.855</v>
+        <v>60.037</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>791</v>
+        <v>510</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -3816,60 +3816,60 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="G109" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="H109" t="n">
-        <v>30200</v>
+        <v>17700</v>
       </c>
       <c r="I109" t="n">
-        <v>91.223</v>
+        <v>65.764</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2019</v>
       </c>
       <c r="C110" t="n">
-        <v>390</v>
+        <v>504</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
-        <v>13700</v>
+        <v>17100</v>
       </c>
       <c r="I110" t="n">
-        <v>71.64400000000001</v>
+        <v>54.822</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>697</v>
+        <v>449</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -3878,29 +3878,29 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>2.43</v>
+        <v>2.05</v>
       </c>
       <c r="G111" t="n">
-        <v>4.1</v>
+        <v>6.9</v>
       </c>
       <c r="H111" t="n">
-        <v>17900</v>
+        <v>22800</v>
       </c>
       <c r="I111" t="n">
-        <v>94.678</v>
+        <v>87.708</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>508</v>
+        <v>776</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -3909,29 +3909,29 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>3.39</v>
+        <v>2.09</v>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
-        <v>23400</v>
+        <v>26500</v>
       </c>
       <c r="I112" t="n">
-        <v>91.876</v>
+        <v>82.616</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2019</v>
       </c>
       <c r="C113" t="n">
-        <v>336</v>
+        <v>709</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3940,60 +3940,60 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2.54</v>
+        <v>1.4</v>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
-        <v>16500</v>
+        <v>25300</v>
       </c>
       <c r="I113" t="n">
-        <v>60.037</v>
+        <v>73.849</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2019</v>
       </c>
       <c r="C114" t="n">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>2.53</v>
+        <v>4.1</v>
       </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>11.3</v>
       </c>
       <c r="H114" t="n">
-        <v>17700</v>
+        <v>10200</v>
       </c>
       <c r="I114" t="n">
-        <v>65.764</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C115" t="n">
-        <v>504</v>
+        <v>729</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4002,29 +4002,29 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H115" t="n">
-        <v>17100</v>
+        <v>22400</v>
       </c>
       <c r="I115" t="n">
-        <v>54.822</v>
+        <v>98.07899999999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C116" t="n">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4033,29 +4033,29 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>2.81</v>
+        <v>1.92</v>
       </c>
       <c r="G116" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
-        <v>23000</v>
+        <v>16800</v>
       </c>
       <c r="I116" t="n">
-        <v>85.446</v>
+        <v>74.06100000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C117" t="n">
-        <v>449</v>
+        <v>641</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4064,91 +4064,91 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="G117" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
-        <v>22800</v>
+        <v>24400</v>
       </c>
       <c r="I117" t="n">
-        <v>87.708</v>
+        <v>77.453</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C118" t="n">
-        <v>776</v>
+        <v>383</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="H118" t="n">
-        <v>26500</v>
+        <v>15400</v>
       </c>
       <c r="I118" t="n">
-        <v>82.616</v>
+        <v>69.229</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C119" t="n">
-        <v>709</v>
+        <v>637</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G119" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="H119" t="n">
-        <v>25300</v>
+        <v>17600</v>
       </c>
       <c r="I119" t="n">
-        <v>73.849</v>
+        <v>63.653</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>2020</v>
       </c>
       <c r="C120" t="n">
-        <v>729</v>
+        <v>499</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -4157,122 +4157,122 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2.52</v>
+        <v>4.13</v>
       </c>
       <c r="G120" t="n">
-        <v>5.8</v>
+        <v>17.6</v>
       </c>
       <c r="H120" t="n">
-        <v>22400</v>
+        <v>14700</v>
       </c>
       <c r="I120" t="n">
-        <v>98.07899999999999</v>
+        <v>79.715</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>2020</v>
       </c>
       <c r="C121" t="n">
-        <v>543</v>
+        <v>449</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>15.5</v>
       </c>
       <c r="H121" t="n">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="I121" t="n">
-        <v>74.06100000000001</v>
+        <v>80.81</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>2020</v>
       </c>
       <c r="C122" t="n">
-        <v>814</v>
+        <v>538</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>3.18</v>
+        <v>2.17</v>
       </c>
       <c r="G122" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>23800</v>
+        <v>21700</v>
       </c>
       <c r="I122" t="n">
-        <v>88.116</v>
+        <v>80.97499999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2020</v>
       </c>
       <c r="C123" t="n">
-        <v>641</v>
+        <v>433</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.69</v>
+        <v>4.07</v>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="H123" t="n">
-        <v>24400</v>
+        <v>13600</v>
       </c>
       <c r="I123" t="n">
-        <v>77.453</v>
+        <v>57.553</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2020</v>
       </c>
       <c r="C124" t="n">
-        <v>383</v>
+        <v>487</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4281,29 +4281,29 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>2.4</v>
+        <v>3.06</v>
       </c>
       <c r="G124" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>15400</v>
+        <v>19100</v>
       </c>
       <c r="I124" t="n">
-        <v>69.229</v>
+        <v>71.039</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2020</v>
       </c>
       <c r="C125" t="n">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4312,91 +4312,91 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>1.2</v>
+        <v>2.35</v>
       </c>
       <c r="G125" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="H125" t="n">
-        <v>17600</v>
+        <v>18900</v>
       </c>
       <c r="I125" t="n">
-        <v>63.653</v>
+        <v>66.821</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2020</v>
       </c>
       <c r="C126" t="n">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>4.13</v>
+        <v>3.04</v>
       </c>
       <c r="G126" t="n">
-        <v>17.6</v>
+        <v>8.1</v>
       </c>
       <c r="H126" t="n">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I126" t="n">
-        <v>79.715</v>
+        <v>68.315</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2020</v>
       </c>
       <c r="C127" t="n">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="G127" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="H127" t="n">
-        <v>16500</v>
+        <v>18600</v>
       </c>
       <c r="I127" t="n">
-        <v>80.81</v>
+        <v>68.04600000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>538</v>
+        <v>790</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -4405,91 +4405,91 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>2.17</v>
+        <v>1.38</v>
       </c>
       <c r="G128" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="H128" t="n">
-        <v>21700</v>
+        <v>27400</v>
       </c>
       <c r="I128" t="n">
-        <v>80.97499999999999</v>
+        <v>91.453</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2020</v>
       </c>
       <c r="C129" t="n">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>4.07</v>
+        <v>2.2</v>
       </c>
       <c r="G129" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="H129" t="n">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="I129" t="n">
-        <v>57.553</v>
+        <v>71.94199999999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2020</v>
       </c>
       <c r="C130" t="n">
-        <v>487</v>
+        <v>642</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>3.06</v>
+        <v>2.21</v>
       </c>
       <c r="G130" t="n">
-        <v>9.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="n">
-        <v>19100</v>
+        <v>16000</v>
       </c>
       <c r="I130" t="n">
-        <v>71.039</v>
+        <v>94.744</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2020</v>
       </c>
       <c r="C131" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -4498,29 +4498,29 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>2.35</v>
+        <v>3.18</v>
       </c>
       <c r="G131" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="H131" t="n">
-        <v>18900</v>
+        <v>22500</v>
       </c>
       <c r="I131" t="n">
-        <v>66.821</v>
+        <v>92.236</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2020</v>
       </c>
       <c r="C132" t="n">
-        <v>478</v>
+        <v>834</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -4529,60 +4529,60 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>3.04</v>
+        <v>2.09</v>
       </c>
       <c r="G132" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
-        <v>14300</v>
+        <v>22700</v>
       </c>
       <c r="I132" t="n">
-        <v>68.315</v>
+        <v>58.748</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>480</v>
+        <v>346</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="G133" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
-        <v>18600</v>
+        <v>16400</v>
       </c>
       <c r="I133" t="n">
-        <v>68.04600000000001</v>
+        <v>60.043</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2020</v>
       </c>
       <c r="C134" t="n">
-        <v>790</v>
+        <v>509</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -4591,60 +4591,60 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1.38</v>
+        <v>2.36</v>
       </c>
       <c r="G134" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="H134" t="n">
-        <v>27400</v>
+        <v>16500</v>
       </c>
       <c r="I134" t="n">
-        <v>91.453</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2020</v>
       </c>
       <c r="C135" t="n">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>2.2</v>
+        <v>3.27</v>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H135" t="n">
-        <v>13700</v>
+        <v>16300</v>
       </c>
       <c r="I135" t="n">
-        <v>71.94199999999999</v>
+        <v>55.118</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2020</v>
       </c>
       <c r="C136" t="n">
-        <v>642</v>
+        <v>431</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -4653,29 +4653,29 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="H136" t="n">
-        <v>16000</v>
+        <v>22300</v>
       </c>
       <c r="I136" t="n">
-        <v>94.744</v>
+        <v>87.977</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2020</v>
       </c>
       <c r="C137" t="n">
-        <v>533</v>
+        <v>726</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -4684,29 +4684,29 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>3.18</v>
+        <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H137" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="I137" t="n">
-        <v>92.236</v>
+        <v>82.974</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2020</v>
       </c>
       <c r="C138" t="n">
-        <v>834</v>
+        <v>706</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4715,29 +4715,29 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2.09</v>
+        <v>1.39</v>
       </c>
       <c r="G138" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H138" t="n">
-        <v>22700</v>
+        <v>24300</v>
       </c>
       <c r="I138" t="n">
-        <v>58.748</v>
+        <v>73.91500000000001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2020</v>
       </c>
       <c r="C139" t="n">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -4746,29 +4746,29 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2.53</v>
+        <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>16400</v>
+        <v>10000</v>
       </c>
       <c r="I139" t="n">
-        <v>60.043</v>
+        <v>56.446</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C140" t="n">
-        <v>509</v>
+        <v>755</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -4777,122 +4777,122 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="G140" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H140" t="n">
-        <v>16500</v>
+        <v>24400</v>
       </c>
       <c r="I140" t="n">
-        <v>66.31</v>
+        <v>98.117</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C141" t="n">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>3.27</v>
+        <v>1.84</v>
       </c>
       <c r="G141" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
-        <v>16300</v>
+        <v>18200</v>
       </c>
       <c r="I141" t="n">
-        <v>55.118</v>
+        <v>74.214</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C142" t="n">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2.73</v>
+        <v>1.8</v>
       </c>
       <c r="G142" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="H142" t="n">
-        <v>22500</v>
+        <v>25400</v>
       </c>
       <c r="I142" t="n">
-        <v>85.517</v>
+        <v>77.544</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C143" t="n">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="G143" t="n">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="H143" t="n">
-        <v>22300</v>
+        <v>16800</v>
       </c>
       <c r="I143" t="n">
-        <v>87.977</v>
+        <v>69.41500000000001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C144" t="n">
-        <v>726</v>
+        <v>625</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -4901,60 +4901,60 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="H144" t="n">
-        <v>25000</v>
+        <v>19300</v>
       </c>
       <c r="I144" t="n">
-        <v>82.974</v>
+        <v>63.912</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C145" t="n">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>1.39</v>
+        <v>4.24</v>
       </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>14.7</v>
       </c>
       <c r="H145" t="n">
-        <v>24300</v>
+        <v>15900</v>
       </c>
       <c r="I145" t="n">
-        <v>73.91500000000001</v>
+        <v>80.038</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2021</v>
       </c>
       <c r="C146" t="n">
-        <v>755</v>
+        <v>467</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -4963,60 +4963,60 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>2.47</v>
+        <v>1.73</v>
       </c>
       <c r="G146" t="n">
-        <v>6.3</v>
+        <v>14.9</v>
       </c>
       <c r="H146" t="n">
-        <v>24400</v>
+        <v>18300</v>
       </c>
       <c r="I146" t="n">
-        <v>98.117</v>
+        <v>81.056</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>7.9</v>
       </c>
       <c r="H147" t="n">
-        <v>18200</v>
+        <v>23200</v>
       </c>
       <c r="I147" t="n">
-        <v>74.214</v>
+        <v>81.242</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2021</v>
       </c>
       <c r="C148" t="n">
-        <v>769</v>
+        <v>456</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -5025,153 +5025,153 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>2.83</v>
+        <v>3.86</v>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="H148" t="n">
-        <v>25600</v>
+        <v>15500</v>
       </c>
       <c r="I148" t="n">
-        <v>88.23999999999999</v>
+        <v>57.878</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>2021</v>
       </c>
       <c r="C149" t="n">
-        <v>651</v>
+        <v>495</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1.8</v>
+        <v>3.01</v>
       </c>
       <c r="G149" t="n">
-        <v>3.7</v>
+        <v>9.5</v>
       </c>
       <c r="H149" t="n">
-        <v>25400</v>
+        <v>20600</v>
       </c>
       <c r="I149" t="n">
-        <v>77.544</v>
+        <v>71.346</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2021</v>
       </c>
       <c r="C150" t="n">
-        <v>395</v>
+        <v>650</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G150" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="H150" t="n">
-        <v>16800</v>
+        <v>20300</v>
       </c>
       <c r="I150" t="n">
-        <v>69.41500000000001</v>
+        <v>66.85599999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>625</v>
+        <v>461</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1.14</v>
+        <v>2.75</v>
       </c>
       <c r="G151" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="H151" t="n">
-        <v>19300</v>
+        <v>15700</v>
       </c>
       <c r="I151" t="n">
-        <v>63.912</v>
+        <v>68.42100000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2021</v>
       </c>
       <c r="C152" t="n">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>4.24</v>
+        <v>1.84</v>
       </c>
       <c r="G152" t="n">
-        <v>14.7</v>
+        <v>7.1</v>
       </c>
       <c r="H152" t="n">
-        <v>15900</v>
+        <v>20400</v>
       </c>
       <c r="I152" t="n">
-        <v>80.038</v>
+        <v>68.249</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2021</v>
       </c>
       <c r="C153" t="n">
-        <v>467</v>
+        <v>793</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -5180,60 +5180,60 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="G153" t="n">
-        <v>14.9</v>
+        <v>5.3</v>
       </c>
       <c r="H153" t="n">
-        <v>18300</v>
+        <v>30200</v>
       </c>
       <c r="I153" t="n">
-        <v>81.056</v>
+        <v>91.672</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2021</v>
       </c>
       <c r="C154" t="n">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="G154" t="n">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
-        <v>23200</v>
+        <v>14600</v>
       </c>
       <c r="I154" t="n">
-        <v>81.242</v>
+        <v>72.245</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2021</v>
       </c>
       <c r="C155" t="n">
-        <v>456</v>
+        <v>611</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -5242,91 +5242,91 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>3.86</v>
+        <v>1.8</v>
       </c>
       <c r="G155" t="n">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="H155" t="n">
-        <v>15500</v>
+        <v>17600</v>
       </c>
       <c r="I155" t="n">
-        <v>57.878</v>
+        <v>94.81</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="G156" t="n">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
-        <v>20600</v>
+        <v>24200</v>
       </c>
       <c r="I156" t="n">
-        <v>71.346</v>
+        <v>92.572</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2021</v>
       </c>
       <c r="C157" t="n">
-        <v>650</v>
+        <v>835</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="G157" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H157" t="n">
-        <v>20300</v>
+        <v>25000</v>
       </c>
       <c r="I157" t="n">
-        <v>66.85599999999999</v>
+        <v>58.995</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2021</v>
       </c>
       <c r="C158" t="n">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -5335,29 +5335,29 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="G158" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
-        <v>15700</v>
+        <v>17900</v>
       </c>
       <c r="I158" t="n">
-        <v>68.42100000000001</v>
+        <v>60.075</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -5366,29 +5366,29 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>1.84</v>
+        <v>2.33</v>
       </c>
       <c r="G159" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H159" t="n">
-        <v>20400</v>
+        <v>17900</v>
       </c>
       <c r="I159" t="n">
-        <v>68.249</v>
+        <v>66.849</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2021</v>
       </c>
       <c r="C160" t="n">
-        <v>793</v>
+        <v>511</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -5397,60 +5397,60 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1.46</v>
+        <v>3.13</v>
       </c>
       <c r="G160" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H160" t="n">
-        <v>30200</v>
+        <v>18200</v>
       </c>
       <c r="I160" t="n">
-        <v>91.672</v>
+        <v>55.427</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="H161" t="n">
-        <v>14600</v>
+        <v>24200</v>
       </c>
       <c r="I161" t="n">
-        <v>72.245</v>
+        <v>88.238</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>611</v>
+        <v>799</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -5459,60 +5459,60 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="G162" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H162" t="n">
-        <v>17600</v>
+        <v>26900</v>
       </c>
       <c r="I162" t="n">
-        <v>94.81</v>
+        <v>83.32299999999999</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>2021</v>
       </c>
       <c r="C163" t="n">
-        <v>515</v>
+        <v>704</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="G163" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H163" t="n">
-        <v>24200</v>
+        <v>25300</v>
       </c>
       <c r="I163" t="n">
-        <v>92.572</v>
+        <v>73.996</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2021</v>
       </c>
       <c r="C164" t="n">
-        <v>835</v>
+        <v>442</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -5521,91 +5521,89 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.17</v>
+        <v>3.9</v>
       </c>
       <c r="G164" t="n">
-        <v>6.2</v>
+        <v>11.2</v>
       </c>
       <c r="H164" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="I164" t="n">
-        <v>58.995</v>
+        <v>56.651</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C165" t="n">
-        <v>370</v>
+        <v>690</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2.88</v>
+        <v>2.22</v>
       </c>
       <c r="G165" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H165" t="n">
-        <v>17900</v>
+        <v>26700</v>
       </c>
       <c r="I165" t="n">
-        <v>60.075</v>
+        <v>98.15300000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C166" t="n">
-        <v>510</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.33</v>
+        <v>1.48</v>
       </c>
       <c r="G166" t="n">
-        <v>6.7</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
-        <v>17900</v>
+        <v>19300</v>
       </c>
       <c r="I166" t="n">
-        <v>66.849</v>
+        <v>74.377</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C167" t="n">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -5614,29 +5612,29 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>3.13</v>
+        <v>1.63</v>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
-        <v>18200</v>
+        <v>27400</v>
       </c>
       <c r="I167" t="n">
-        <v>55.427</v>
+        <v>77.648</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C168" t="n">
-        <v>630</v>
+        <v>373</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5645,29 +5643,29 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="G168" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="H168" t="n">
-        <v>23700</v>
+        <v>18200</v>
       </c>
       <c r="I168" t="n">
-        <v>85.596</v>
+        <v>69.60899999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C169" t="n">
-        <v>418</v>
+        <v>622</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -5676,30 +5674,28 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>1.89</v>
+        <v>0.87</v>
       </c>
       <c r="G169" t="n">
-        <v>8.9</v>
+        <v>4.5</v>
       </c>
       <c r="H169" t="n">
-        <v>24200</v>
+        <v>21900</v>
       </c>
       <c r="I169" t="n">
-        <v>88.238</v>
+        <v>64.18300000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C170" t="n">
-        <v>799</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
         <v>1</v>
       </c>
@@ -5707,60 +5703,60 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>1.74</v>
+        <v>5.6</v>
       </c>
       <c r="G170" t="n">
-        <v>4.4</v>
+        <v>12.5</v>
       </c>
       <c r="H170" t="n">
-        <v>26900</v>
+        <v>18100</v>
       </c>
       <c r="I170" t="n">
-        <v>83.32299999999999</v>
+        <v>80.357</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C171" t="n">
-        <v>704</v>
+        <v>466</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="G171" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="H171" t="n">
-        <v>25300</v>
+        <v>20000</v>
       </c>
       <c r="I171" t="n">
-        <v>73.996</v>
+        <v>81.304</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
       </c>
       <c r="C172" t="n">
-        <v>690</v>
+        <v>535</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -5769,28 +5765,30 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="G172" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="H172" t="n">
-        <v>26700</v>
+        <v>24900</v>
       </c>
       <c r="I172" t="n">
-        <v>98.15300000000001</v>
+        <v>81.509</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>478</v>
+      </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
@@ -5798,29 +5796,29 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1.48</v>
+        <v>3.34</v>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H173" t="n">
-        <v>19300</v>
+        <v>17600</v>
       </c>
       <c r="I173" t="n">
-        <v>74.377</v>
+        <v>58.219</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
       </c>
       <c r="C174" t="n">
-        <v>802</v>
+        <v>486</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -5829,29 +5827,29 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>8.1</v>
       </c>
       <c r="H174" t="n">
-        <v>25700</v>
+        <v>23200</v>
       </c>
       <c r="I174" t="n">
-        <v>88.367</v>
+        <v>71.657</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
       </c>
       <c r="C175" t="n">
-        <v>606</v>
+        <v>673</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -5860,29 +5858,29 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>1.63</v>
+        <v>2.19</v>
       </c>
       <c r="G175" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H175" t="n">
-        <v>27400</v>
+        <v>22700</v>
       </c>
       <c r="I175" t="n">
-        <v>77.648</v>
+        <v>66.911</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
       </c>
       <c r="C176" t="n">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -5891,59 +5889,61 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="G176" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="H176" t="n">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="I176" t="n">
-        <v>69.60899999999999</v>
+        <v>68.54000000000001</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
       </c>
       <c r="C177" t="n">
-        <v>622</v>
+        <v>465</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.87</v>
+        <v>1.52</v>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H177" t="n">
         <v>21900</v>
       </c>
       <c r="I177" t="n">
-        <v>64.18300000000001</v>
+        <v>68.465</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="n">
+        <v>721</v>
+      </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
@@ -5951,60 +5951,60 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>5.6</v>
+        <v>1.23</v>
       </c>
       <c r="G178" t="n">
-        <v>12.5</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
-        <v>18100</v>
+        <v>32000</v>
       </c>
       <c r="I178" t="n">
-        <v>80.357</v>
+        <v>91.881</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
       </c>
       <c r="C179" t="n">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="G179" t="n">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="H179" t="n">
-        <v>20000</v>
+        <v>16400</v>
       </c>
       <c r="I179" t="n">
-        <v>81.304</v>
+        <v>72.55200000000001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
       </c>
       <c r="C180" t="n">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -6013,29 +6013,29 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="G180" t="n">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
-        <v>24900</v>
+        <v>19200</v>
       </c>
       <c r="I180" t="n">
-        <v>81.509</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
       </c>
       <c r="C181" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -6044,29 +6044,29 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>3.34</v>
+        <v>2.37</v>
       </c>
       <c r="G181" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H181" t="n">
-        <v>17600</v>
+        <v>26900</v>
       </c>
       <c r="I181" t="n">
-        <v>58.219</v>
+        <v>92.886</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
       </c>
       <c r="C182" t="n">
-        <v>486</v>
+        <v>803</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -6075,91 +6075,91 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="G182" t="n">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="H182" t="n">
-        <v>23200</v>
+        <v>27500</v>
       </c>
       <c r="I182" t="n">
-        <v>71.657</v>
+        <v>59.256</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
       </c>
       <c r="C183" t="n">
-        <v>673</v>
+        <v>364</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
       <c r="G183" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H183" t="n">
-        <v>22700</v>
+        <v>20300</v>
       </c>
       <c r="I183" t="n">
-        <v>66.911</v>
+        <v>60.134</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
       </c>
       <c r="C184" t="n">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="G184" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="H184" t="n">
-        <v>17600</v>
+        <v>20200</v>
       </c>
       <c r="I184" t="n">
-        <v>68.54000000000001</v>
+        <v>67.381</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
       </c>
       <c r="C185" t="n">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -6168,29 +6168,29 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>1.52</v>
+        <v>2.87</v>
       </c>
       <c r="G185" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H185" t="n">
-        <v>21900</v>
+        <v>20200</v>
       </c>
       <c r="I185" t="n">
-        <v>68.465</v>
+        <v>55.751</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
       </c>
       <c r="C186" t="n">
-        <v>721</v>
+        <v>395</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -6199,84 +6199,84 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="G186" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H186" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="I186" t="n">
-        <v>91.881</v>
+        <v>88.492</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>2022</v>
       </c>
       <c r="C187" t="n">
-        <v>407</v>
+        <v>768</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>1.88</v>
+        <v>1.29</v>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H187" t="n">
-        <v>16400</v>
+        <v>29700</v>
       </c>
       <c r="I187" t="n">
-        <v>72.55200000000001</v>
+        <v>83.664</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>2022</v>
       </c>
       <c r="C188" t="n">
-        <v>618</v>
+        <v>677</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="G188" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H188" t="n">
-        <v>19200</v>
+        <v>27300</v>
       </c>
       <c r="I188" t="n">
-        <v>94.875</v>
+        <v>74.092</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -6286,270 +6286,22 @@
         <v>473</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="G189" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="H189" t="n">
-        <v>26900</v>
+        <v>12300</v>
       </c>
       <c r="I189" t="n">
-        <v>92.886</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C190" t="n">
-        <v>803</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H190" t="n">
-        <v>27500</v>
-      </c>
-      <c r="I190" t="n">
-        <v>59.256</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C191" t="n">
-        <v>364</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H191" t="n">
-        <v>20300</v>
-      </c>
-      <c r="I191" t="n">
-        <v>60.134</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="n">
-        <v>508</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G192" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H192" t="n">
-        <v>20200</v>
-      </c>
-      <c r="I192" t="n">
-        <v>67.381</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C193" t="n">
-        <v>487</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4</v>
-      </c>
-      <c r="H193" t="n">
-        <v>20200</v>
-      </c>
-      <c r="I193" t="n">
-        <v>55.751</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C194" t="n">
-        <v>522</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="G194" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H194" t="n">
-        <v>25500</v>
-      </c>
-      <c r="I194" t="n">
-        <v>85.681</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C195" t="n">
-        <v>395</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G195" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H195" t="n">
-        <v>26000</v>
-      </c>
-      <c r="I195" t="n">
-        <v>88.492</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C196" t="n">
-        <v>768</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G196" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H196" t="n">
-        <v>29700</v>
-      </c>
-      <c r="I196" t="n">
-        <v>83.664</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C197" t="n">
-        <v>677</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H197" t="n">
-        <v>27300</v>
-      </c>
-      <c r="I197" t="n">
-        <v>74.092</v>
+        <v>56.873</v>
       </c>
     </row>
   </sheetData>

--- a/data/obtained_data/original_data.xlsx
+++ b/data/obtained_data/original_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +483,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2015</v>
       </c>
       <c r="C2" t="n">
-        <v>316</v>
+        <v>431</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -499,122 +499,122 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="G2" t="n">
-        <v>5.1</v>
+        <v>10.1</v>
       </c>
       <c r="H2" t="n">
-        <v>14800</v>
+        <v>10000</v>
       </c>
       <c r="I2" t="n">
-        <v>73.477</v>
+        <v>73.98999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>316</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>22800</v>
+        <v>14800</v>
       </c>
       <c r="I3" t="n">
-        <v>77.2</v>
+        <v>73.477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2015</v>
       </c>
       <c r="C4" t="n">
-        <v>359</v>
+        <v>632</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.73</v>
+        <v>1.92</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>13300</v>
+        <v>22800</v>
       </c>
       <c r="I4" t="n">
-        <v>68.416</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2015</v>
       </c>
       <c r="C5" t="n">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.89</v>
+        <v>2.73</v>
       </c>
       <c r="G5" t="n">
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>17800</v>
+        <v>13300</v>
       </c>
       <c r="I5" t="n">
-        <v>62.538</v>
+        <v>68.416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2015</v>
       </c>
       <c r="C6" t="n">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -623,29 +623,29 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>1.89</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>9.9</v>
       </c>
       <c r="H6" t="n">
-        <v>14600</v>
+        <v>17800</v>
       </c>
       <c r="I6" t="n">
-        <v>78.04600000000001</v>
+        <v>62.538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -654,29 +654,29 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>22.1</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>16900</v>
+        <v>14600</v>
       </c>
       <c r="I7" t="n">
-        <v>79.602</v>
+        <v>78.04600000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -685,153 +685,153 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="G8" t="n">
-        <v>10.3</v>
+        <v>22.1</v>
       </c>
       <c r="H8" t="n">
-        <v>20800</v>
+        <v>16900</v>
       </c>
       <c r="I8" t="n">
-        <v>79.655</v>
+        <v>79.602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2015</v>
       </c>
       <c r="C9" t="n">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>4.21</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>16.2</v>
+        <v>10.3</v>
       </c>
       <c r="H9" t="n">
-        <v>11600</v>
+        <v>20800</v>
       </c>
       <c r="I9" t="n">
-        <v>56.155</v>
+        <v>79.655</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2015</v>
       </c>
       <c r="C10" t="n">
-        <v>490</v>
+        <v>398</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3.39</v>
+        <v>4.21</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>16.2</v>
       </c>
       <c r="H10" t="n">
-        <v>18500</v>
+        <v>11600</v>
       </c>
       <c r="I10" t="n">
-        <v>69.565</v>
+        <v>56.155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>637</v>
+        <v>490</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.03</v>
+        <v>3.39</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="I11" t="n">
-        <v>66.946</v>
+        <v>69.565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2015</v>
       </c>
       <c r="C12" t="n">
-        <v>404</v>
+        <v>637</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="G12" t="n">
-        <v>9.9</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>12400</v>
+        <v>16900</v>
       </c>
       <c r="I12" t="n">
-        <v>67.98</v>
+        <v>66.946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2015</v>
       </c>
       <c r="C13" t="n">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="H13" t="n">
-        <v>15600</v>
+        <v>12400</v>
       </c>
       <c r="I13" t="n">
-        <v>67.23</v>
+        <v>67.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2015</v>
       </c>
       <c r="C14" t="n">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -871,60 +871,60 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.47</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="H14" t="n">
-        <v>11800</v>
+        <v>15600</v>
       </c>
       <c r="I14" t="n">
-        <v>70.5</v>
+        <v>67.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2015</v>
       </c>
       <c r="C15" t="n">
-        <v>643</v>
+        <v>379</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.66</v>
+        <v>2.47</v>
       </c>
       <c r="G15" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="H15" t="n">
-        <v>15600</v>
+        <v>11800</v>
       </c>
       <c r="I15" t="n">
-        <v>94.414</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2015</v>
       </c>
       <c r="C16" t="n">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -933,91 +933,91 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.32</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>21600</v>
+        <v>15600</v>
       </c>
       <c r="I16" t="n">
-        <v>90.173</v>
+        <v>94.414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2015</v>
       </c>
       <c r="C17" t="n">
-        <v>286</v>
+        <v>523</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2.65</v>
+        <v>3.32</v>
       </c>
       <c r="G17" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="H17" t="n">
-        <v>14100</v>
+        <v>21600</v>
       </c>
       <c r="I17" t="n">
-        <v>60.278</v>
+        <v>90.173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2015</v>
       </c>
       <c r="C18" t="n">
-        <v>459</v>
+        <v>286</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>7.7</v>
       </c>
       <c r="H18" t="n">
-        <v>15600</v>
+        <v>14100</v>
       </c>
       <c r="I18" t="n">
-        <v>63.514</v>
+        <v>60.278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1026,91 +1026,91 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3.88</v>
+        <v>2.42</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>14500</v>
+        <v>15600</v>
       </c>
       <c r="I19" t="n">
-        <v>53.781</v>
+        <v>63.514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2015</v>
       </c>
       <c r="C20" t="n">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="G20" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="H20" t="n">
-        <v>22200</v>
+        <v>10900</v>
       </c>
       <c r="I20" t="n">
-        <v>86.553</v>
+        <v>53.887</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2015</v>
       </c>
       <c r="C21" t="n">
-        <v>728</v>
+        <v>449</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1.36</v>
+        <v>3.88</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>25200</v>
+        <v>14500</v>
       </c>
       <c r="I21" t="n">
-        <v>73.718</v>
+        <v>53.781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2015</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1119,184 +1119,184 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>4.1</v>
+        <v>2.49</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="H22" t="n">
-        <v>8900</v>
+        <v>14000</v>
       </c>
       <c r="I22" t="n">
-        <v>55.696</v>
+        <v>53.889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C23" t="n">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="n">
-        <v>15300</v>
+        <v>22200</v>
       </c>
       <c r="I23" t="n">
-        <v>73.56999999999999</v>
+        <v>86.553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C24" t="n">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="G24" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>23500</v>
+        <v>25200</v>
       </c>
       <c r="I24" t="n">
-        <v>77.224</v>
+        <v>73.718</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C25" t="n">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2.97</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>13700</v>
+        <v>8900</v>
       </c>
       <c r="I25" t="n">
-        <v>68.563</v>
+        <v>55.696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2016</v>
       </c>
       <c r="C26" t="n">
-        <v>580</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>2.98</v>
       </c>
       <c r="G26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H26" t="n">
-        <v>18300</v>
+        <v>10400</v>
       </c>
       <c r="I26" t="n">
-        <v>62.737</v>
+        <v>74.32899999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2016</v>
       </c>
       <c r="C27" t="n">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>4.17</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>23.9</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>14600</v>
+        <v>15300</v>
       </c>
       <c r="I27" t="n">
-        <v>78.387</v>
+        <v>73.56999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>464</v>
+        <v>633</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1305,122 +1305,122 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G28" t="n">
-        <v>19.6</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>17200</v>
+        <v>23500</v>
       </c>
       <c r="I28" t="n">
-        <v>79.84</v>
+        <v>77.224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2016</v>
       </c>
       <c r="C29" t="n">
-        <v>553</v>
+        <v>376</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="G29" t="n">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="H29" t="n">
-        <v>21200</v>
+        <v>13700</v>
       </c>
       <c r="I29" t="n">
-        <v>79.917</v>
+        <v>68.563</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2016</v>
       </c>
       <c r="C30" t="n">
-        <v>409</v>
+        <v>580</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>4.31</v>
+        <v>1.9</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="H30" t="n">
-        <v>12100</v>
+        <v>18300</v>
       </c>
       <c r="I30" t="n">
-        <v>56.403</v>
+        <v>62.737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2016</v>
       </c>
       <c r="C31" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>3.51</v>
+        <v>4.17</v>
       </c>
       <c r="G31" t="n">
-        <v>11.7</v>
+        <v>23.9</v>
       </c>
       <c r="H31" t="n">
-        <v>19000</v>
+        <v>14600</v>
       </c>
       <c r="I31" t="n">
-        <v>69.855</v>
+        <v>78.387</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2016</v>
       </c>
       <c r="C32" t="n">
-        <v>649</v>
+        <v>464</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1429,215 +1429,215 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>2.91</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>19.6</v>
       </c>
       <c r="H32" t="n">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="I32" t="n">
-        <v>66.881</v>
+        <v>79.84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2016</v>
       </c>
       <c r="C33" t="n">
-        <v>410</v>
+        <v>553</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>3.58</v>
+        <v>2.24</v>
       </c>
       <c r="G33" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H33" t="n">
-        <v>12900</v>
+        <v>21200</v>
       </c>
       <c r="I33" t="n">
-        <v>68.021</v>
+        <v>79.917</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2016</v>
       </c>
       <c r="C34" t="n">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>4.31</v>
       </c>
       <c r="G34" t="n">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>16300</v>
+        <v>12100</v>
       </c>
       <c r="I34" t="n">
-        <v>67.366</v>
+        <v>56.403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>815</v>
+        <v>501</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.66</v>
+        <v>3.51</v>
       </c>
       <c r="G35" t="n">
-        <v>6.3</v>
+        <v>11.7</v>
       </c>
       <c r="H35" t="n">
-        <v>28600</v>
+        <v>19000</v>
       </c>
       <c r="I35" t="n">
-        <v>90.45999999999999</v>
+        <v>69.855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>381</v>
+        <v>649</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>2.53</v>
+        <v>2.91</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H36" t="n">
-        <v>12100</v>
+        <v>17800</v>
       </c>
       <c r="I36" t="n">
-        <v>70.779</v>
+        <v>66.881</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2016</v>
       </c>
       <c r="C37" t="n">
-        <v>643</v>
+        <v>410</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.65</v>
+        <v>3.58</v>
       </c>
       <c r="G37" t="n">
-        <v>4.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>16000</v>
+        <v>12900</v>
       </c>
       <c r="I37" t="n">
-        <v>94.48</v>
+        <v>68.021</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.35</v>
+        <v>1.92</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="H38" t="n">
-        <v>21400</v>
+        <v>16300</v>
       </c>
       <c r="I38" t="n">
-        <v>90.63500000000001</v>
+        <v>67.366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1646,29 +1646,29 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="G39" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>14300</v>
+        <v>12100</v>
       </c>
       <c r="I39" t="n">
-        <v>60.178</v>
+        <v>70.779</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>472</v>
+        <v>643</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1677,29 +1677,29 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="G40" t="n">
-        <v>11.5</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="I40" t="n">
-        <v>64.086</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1708,60 +1708,60 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" t="n">
-        <v>14900</v>
+        <v>21400</v>
       </c>
       <c r="I41" t="n">
-        <v>54.02</v>
+        <v>90.63500000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>447</v>
+        <v>307</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.22</v>
+        <v>2.72</v>
       </c>
       <c r="G42" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H42" t="n">
-        <v>22100</v>
+        <v>14300</v>
       </c>
       <c r="I42" t="n">
-        <v>86.852</v>
+        <v>60.178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2016</v>
       </c>
       <c r="C43" t="n">
-        <v>754</v>
+        <v>472</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1770,29 +1770,29 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="H43" t="n">
-        <v>24500</v>
+        <v>15900</v>
       </c>
       <c r="I43" t="n">
-        <v>81.485</v>
+        <v>64.086</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>723</v>
+        <v>261</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1801,60 +1801,60 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.38</v>
+        <v>2.44</v>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="H44" t="n">
-        <v>25000</v>
+        <v>12100</v>
       </c>
       <c r="I44" t="n">
-        <v>73.739</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>4.1</v>
+        <v>3.88</v>
       </c>
       <c r="G45" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>9000</v>
+        <v>14900</v>
       </c>
       <c r="I45" t="n">
-        <v>55.81</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C46" t="n">
-        <v>489</v>
+        <v>348</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1863,29 +1863,29 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.01</v>
+        <v>2.48</v>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>9.6</v>
       </c>
       <c r="H46" t="n">
-        <v>16300</v>
+        <v>13200</v>
       </c>
       <c r="I46" t="n">
-        <v>73.675</v>
+        <v>53.806</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="n">
-        <v>627</v>
+        <v>447</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1894,29 +1894,29 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="H47" t="n">
-        <v>24100</v>
+        <v>22100</v>
       </c>
       <c r="I47" t="n">
-        <v>77.261</v>
+        <v>86.852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C48" t="n">
-        <v>390</v>
+        <v>723</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1925,29 +1925,29 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.86</v>
+        <v>1.38</v>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>14200</v>
+        <v>25000</v>
       </c>
       <c r="I48" t="n">
-        <v>68.717</v>
+        <v>73.739</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C49" t="n">
-        <v>573</v>
+        <v>268</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1956,91 +1956,91 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="G49" t="n">
-        <v>6.7</v>
+        <v>16.5</v>
       </c>
       <c r="H49" t="n">
-        <v>18600</v>
+        <v>9000</v>
       </c>
       <c r="I49" t="n">
-        <v>62.947</v>
+        <v>55.81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2017</v>
       </c>
       <c r="C50" t="n">
-        <v>504</v>
+        <v>453</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4.39</v>
+        <v>2.8</v>
       </c>
       <c r="G50" t="n">
-        <v>21.8</v>
+        <v>7.2</v>
       </c>
       <c r="H50" t="n">
-        <v>15200</v>
+        <v>10800</v>
       </c>
       <c r="I50" t="n">
-        <v>78.724</v>
+        <v>74.669</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="G51" t="n">
-        <v>17.2</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
-        <v>18100</v>
+        <v>16300</v>
       </c>
       <c r="I51" t="n">
-        <v>80.08</v>
+        <v>73.675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2017</v>
       </c>
       <c r="C52" t="n">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2049,29 +2049,29 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>2.31</v>
+        <v>1.81</v>
       </c>
       <c r="G52" t="n">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
-        <v>21500</v>
+        <v>24100</v>
       </c>
       <c r="I52" t="n">
-        <v>80.18000000000001</v>
+        <v>77.261</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2080,60 +2080,60 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>4.33</v>
+        <v>2.86</v>
       </c>
       <c r="G53" t="n">
-        <v>11.1</v>
+        <v>5.8</v>
       </c>
       <c r="H53" t="n">
-        <v>12700</v>
+        <v>14200</v>
       </c>
       <c r="I53" t="n">
-        <v>56.667</v>
+        <v>68.717</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2017</v>
       </c>
       <c r="C54" t="n">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>3.34</v>
+        <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="H54" t="n">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="I54" t="n">
-        <v>70.14400000000001</v>
+        <v>62.947</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2017</v>
       </c>
       <c r="C55" t="n">
-        <v>642</v>
+        <v>504</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2142,91 +2142,91 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>2.97</v>
+        <v>4.39</v>
       </c>
       <c r="G55" t="n">
-        <v>11.1</v>
+        <v>21.8</v>
       </c>
       <c r="H55" t="n">
-        <v>18600</v>
+        <v>15200</v>
       </c>
       <c r="I55" t="n">
-        <v>66.836</v>
+        <v>78.724</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2017</v>
       </c>
       <c r="C56" t="n">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>3.49</v>
+        <v>1.84</v>
       </c>
       <c r="G56" t="n">
-        <v>8.699999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="H56" t="n">
-        <v>13700</v>
+        <v>18100</v>
       </c>
       <c r="I56" t="n">
-        <v>68.075</v>
+        <v>80.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2017</v>
       </c>
       <c r="C57" t="n">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1.91</v>
+        <v>2.31</v>
       </c>
       <c r="G57" t="n">
-        <v>7.1</v>
+        <v>9.4</v>
       </c>
       <c r="H57" t="n">
-        <v>17400</v>
+        <v>21500</v>
       </c>
       <c r="I57" t="n">
-        <v>67.51600000000001</v>
+        <v>80.18000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2017</v>
       </c>
       <c r="C58" t="n">
-        <v>798</v>
+        <v>424</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2235,29 +2235,29 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1.64</v>
+        <v>4.33</v>
       </c>
       <c r="G58" t="n">
-        <v>5.5</v>
+        <v>11.1</v>
       </c>
       <c r="H58" t="n">
-        <v>29400</v>
+        <v>12700</v>
       </c>
       <c r="I58" t="n">
-        <v>90.727</v>
+        <v>56.667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2017</v>
       </c>
       <c r="C59" t="n">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2266,29 +2266,29 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.44</v>
+        <v>3.34</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>11.3</v>
       </c>
       <c r="H59" t="n">
-        <v>12500</v>
+        <v>19700</v>
       </c>
       <c r="I59" t="n">
-        <v>71.062</v>
+        <v>70.14400000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2017</v>
       </c>
       <c r="C60" t="n">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2297,60 +2297,60 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2.54</v>
+        <v>2.97</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>11.1</v>
       </c>
       <c r="H60" t="n">
-        <v>16400</v>
+        <v>18600</v>
       </c>
       <c r="I60" t="n">
-        <v>94.54600000000001</v>
+        <v>66.836</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>513</v>
+        <v>411</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="G61" t="n">
-        <v>5.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>22200</v>
+        <v>13700</v>
       </c>
       <c r="I61" t="n">
-        <v>91.077</v>
+        <v>68.075</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>315</v>
+        <v>453</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2359,60 +2359,60 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.69</v>
+        <v>1.91</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="H62" t="n">
-        <v>15100</v>
+        <v>17400</v>
       </c>
       <c r="I62" t="n">
-        <v>60.105</v>
+        <v>67.51600000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2017</v>
       </c>
       <c r="C63" t="n">
-        <v>484</v>
+        <v>387</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="G63" t="n">
-        <v>9.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>16300</v>
+        <v>12500</v>
       </c>
       <c r="I63" t="n">
-        <v>64.652</v>
+        <v>71.062</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2017</v>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>667</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2421,29 +2421,29 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>3.67</v>
+        <v>2.54</v>
       </c>
       <c r="G64" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>15500</v>
+        <v>16400</v>
       </c>
       <c r="I64" t="n">
-        <v>54.273</v>
+        <v>94.54600000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2017</v>
       </c>
       <c r="C65" t="n">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2452,91 +2452,91 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2.11</v>
+        <v>3.34</v>
       </c>
       <c r="G65" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H65" t="n">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="I65" t="n">
-        <v>87.146</v>
+        <v>91.077</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>2017</v>
       </c>
       <c r="C66" t="n">
-        <v>748</v>
+        <v>315</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.28</v>
+        <v>2.69</v>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>25900</v>
+        <v>15100</v>
       </c>
       <c r="I66" t="n">
-        <v>81.871</v>
+        <v>60.105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2017</v>
       </c>
       <c r="C67" t="n">
-        <v>709</v>
+        <v>484</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1.38</v>
+        <v>2.58</v>
       </c>
       <c r="G67" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>24900</v>
+        <v>16300</v>
       </c>
       <c r="I67" t="n">
-        <v>73.761</v>
+        <v>64.652</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2017</v>
       </c>
       <c r="C68" t="n">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2545,277 +2545,277 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>4.1</v>
+        <v>1.95</v>
       </c>
       <c r="G68" t="n">
-        <v>14.6</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
-        <v>9300</v>
+        <v>13400</v>
       </c>
       <c r="I68" t="n">
-        <v>55.942</v>
+        <v>53.936</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C69" t="n">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1.96</v>
+        <v>3.67</v>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H69" t="n">
-        <v>16900</v>
+        <v>15500</v>
       </c>
       <c r="I69" t="n">
-        <v>73.792</v>
+        <v>54.273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C70" t="n">
-        <v>606</v>
+        <v>378</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1.77</v>
+        <v>2.54</v>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="H70" t="n">
-        <v>24800</v>
+        <v>13300</v>
       </c>
       <c r="I70" t="n">
-        <v>77.312</v>
+        <v>53.751</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C71" t="n">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2.73</v>
+        <v>2.11</v>
       </c>
       <c r="G71" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="H71" t="n">
-        <v>15000</v>
+        <v>22400</v>
       </c>
       <c r="I71" t="n">
-        <v>68.88</v>
+        <v>87.146</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C72" t="n">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="G72" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
-        <v>19200</v>
+        <v>24900</v>
       </c>
       <c r="I72" t="n">
-        <v>63.17</v>
+        <v>73.761</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C73" t="n">
-        <v>515</v>
+        <v>306</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="G73" t="n">
-        <v>19.7</v>
+        <v>14.6</v>
       </c>
       <c r="H73" t="n">
-        <v>15600</v>
+        <v>9300</v>
       </c>
       <c r="I73" t="n">
-        <v>79.05800000000001</v>
+        <v>55.942</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>2018</v>
       </c>
       <c r="C74" t="n">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="G74" t="n">
-        <v>15.3</v>
+        <v>6.2</v>
       </c>
       <c r="H74" t="n">
-        <v>18400</v>
+        <v>11400</v>
       </c>
       <c r="I74" t="n">
-        <v>80.321</v>
+        <v>75.008</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2018</v>
       </c>
       <c r="C75" t="n">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2.37</v>
+        <v>1.96</v>
       </c>
       <c r="G75" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
-        <v>21800</v>
+        <v>16900</v>
       </c>
       <c r="I75" t="n">
-        <v>80.444</v>
+        <v>73.792</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>2018</v>
       </c>
       <c r="C76" t="n">
-        <v>443</v>
+        <v>606</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>4.36</v>
+        <v>1.77</v>
       </c>
       <c r="G76" t="n">
-        <v>8.300000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
-        <v>13300</v>
+        <v>24800</v>
       </c>
       <c r="I76" t="n">
-        <v>56.947</v>
+        <v>77.312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2018</v>
       </c>
       <c r="C77" t="n">
-        <v>502</v>
+        <v>405</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -2824,29 +2824,29 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>3.31</v>
+        <v>2.73</v>
       </c>
       <c r="G77" t="n">
-        <v>10.6</v>
+        <v>5.4</v>
       </c>
       <c r="H77" t="n">
-        <v>20100</v>
+        <v>15000</v>
       </c>
       <c r="I77" t="n">
-        <v>70.438</v>
+        <v>68.88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>2018</v>
       </c>
       <c r="C78" t="n">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2855,91 +2855,91 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>2.83</v>
+        <v>1.56</v>
       </c>
       <c r="G78" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>19200</v>
       </c>
       <c r="I78" t="n">
-        <v>66.81</v>
+        <v>63.17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2018</v>
       </c>
       <c r="C79" t="n">
-        <v>407</v>
+        <v>515</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="G79" t="n">
-        <v>7.4</v>
+        <v>19.7</v>
       </c>
       <c r="H79" t="n">
-        <v>14300</v>
+        <v>15600</v>
       </c>
       <c r="I79" t="n">
-        <v>68.142</v>
+        <v>79.05800000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2018</v>
       </c>
       <c r="C80" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="G80" t="n">
-        <v>6.2</v>
+        <v>15.3</v>
       </c>
       <c r="H80" t="n">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="I80" t="n">
-        <v>67.679</v>
+        <v>80.321</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>2018</v>
       </c>
       <c r="C81" t="n">
-        <v>803</v>
+        <v>557</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -2948,91 +2948,91 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1.71</v>
+        <v>2.37</v>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
-        <v>30500</v>
+        <v>21800</v>
       </c>
       <c r="I81" t="n">
-        <v>90.98099999999999</v>
+        <v>80.444</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>2018</v>
       </c>
       <c r="C82" t="n">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>2.32</v>
+        <v>4.36</v>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="I82" t="n">
-        <v>71.351</v>
+        <v>56.947</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2018</v>
       </c>
       <c r="C83" t="n">
-        <v>673</v>
+        <v>502</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>2.44</v>
+        <v>3.31</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>10.6</v>
       </c>
       <c r="H83" t="n">
-        <v>17400</v>
+        <v>20100</v>
       </c>
       <c r="I83" t="n">
-        <v>94.61199999999999</v>
+        <v>70.438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2018</v>
       </c>
       <c r="C84" t="n">
-        <v>511</v>
+        <v>662</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -3041,29 +3041,29 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>3.34</v>
+        <v>2.83</v>
       </c>
       <c r="G84" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="H84" t="n">
-        <v>23100</v>
+        <v>19200</v>
       </c>
       <c r="I84" t="n">
-        <v>91.48999999999999</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>2018</v>
       </c>
       <c r="C85" t="n">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3072,91 +3072,91 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2.7</v>
+        <v>3.37</v>
       </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="H85" t="n">
-        <v>15800</v>
+        <v>14300</v>
       </c>
       <c r="I85" t="n">
-        <v>60.058</v>
+        <v>68.142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2.57</v>
+        <v>1.98</v>
       </c>
       <c r="G86" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H86" t="n">
-        <v>17100</v>
+        <v>18200</v>
       </c>
       <c r="I86" t="n">
-        <v>65.211</v>
+        <v>67.679</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2018</v>
       </c>
       <c r="C87" t="n">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
-        <v>16200</v>
+        <v>13100</v>
       </c>
       <c r="I87" t="n">
-        <v>54.541</v>
+        <v>71.351</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2018</v>
       </c>
       <c r="C88" t="n">
-        <v>434</v>
+        <v>673</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -3165,29 +3165,29 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>2.09</v>
+        <v>2.44</v>
       </c>
       <c r="G88" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
-        <v>22700</v>
+        <v>17400</v>
       </c>
       <c r="I88" t="n">
-        <v>87.431</v>
+        <v>94.61199999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2018</v>
       </c>
       <c r="C89" t="n">
-        <v>739</v>
+        <v>511</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -3196,29 +3196,29 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>2.18</v>
+        <v>3.34</v>
       </c>
       <c r="G89" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
-        <v>26500</v>
+        <v>23100</v>
       </c>
       <c r="I89" t="n">
-        <v>82.248</v>
+        <v>91.48999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>2018</v>
       </c>
       <c r="C90" t="n">
-        <v>706</v>
+        <v>329</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -3227,60 +3227,60 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H90" t="n">
-        <v>25200</v>
+        <v>15800</v>
       </c>
       <c r="I90" t="n">
-        <v>73.797</v>
+        <v>60.058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2018</v>
       </c>
       <c r="C91" t="n">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>4.2</v>
+        <v>2.57</v>
       </c>
       <c r="G91" t="n">
-        <v>13.8</v>
+        <v>7.2</v>
       </c>
       <c r="H91" t="n">
-        <v>9700</v>
+        <v>17100</v>
       </c>
       <c r="I91" t="n">
-        <v>56.092</v>
+        <v>65.211</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C92" t="n">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3289,29 +3289,29 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
-        <v>17600</v>
+        <v>14800</v>
       </c>
       <c r="I92" t="n">
-        <v>73.92100000000001</v>
+        <v>53.998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C93" t="n">
-        <v>609</v>
+        <v>486</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -3320,29 +3320,29 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>1.76</v>
+        <v>3.4</v>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H93" t="n">
-        <v>25200</v>
+        <v>16200</v>
       </c>
       <c r="I93" t="n">
-        <v>77.376</v>
+        <v>54.541</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C94" t="n">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3351,29 +3351,29 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="G94" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H94" t="n">
-        <v>15600</v>
+        <v>13600</v>
       </c>
       <c r="I94" t="n">
-        <v>69.051</v>
+        <v>53.726</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C95" t="n">
-        <v>620</v>
+        <v>434</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -3382,60 +3382,60 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>1.41</v>
+        <v>2.09</v>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="H95" t="n">
-        <v>19500</v>
+        <v>22700</v>
       </c>
       <c r="I95" t="n">
-        <v>63.405</v>
+        <v>87.431</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C96" t="n">
-        <v>524</v>
+        <v>706</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="G96" t="n">
-        <v>17.9</v>
+        <v>4.7</v>
       </c>
       <c r="H96" t="n">
-        <v>15800</v>
+        <v>25200</v>
       </c>
       <c r="I96" t="n">
-        <v>79.38800000000001</v>
+        <v>73.797</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C97" t="n">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -3444,60 +3444,60 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1.77</v>
+        <v>4.2</v>
       </c>
       <c r="G97" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="H97" t="n">
-        <v>18800</v>
+        <v>9700</v>
       </c>
       <c r="I97" t="n">
-        <v>80.565</v>
+        <v>56.092</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>2019</v>
       </c>
       <c r="C98" t="n">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>2.31</v>
+        <v>2.99</v>
       </c>
       <c r="G98" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="H98" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="I98" t="n">
-        <v>80.709</v>
+        <v>75.34699999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2019</v>
       </c>
       <c r="C99" t="n">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -3506,153 +3506,153 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>4.24</v>
+        <v>2.04</v>
       </c>
       <c r="G99" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>13900</v>
+        <v>17600</v>
       </c>
       <c r="I99" t="n">
-        <v>57.242</v>
+        <v>73.92100000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>2019</v>
       </c>
       <c r="C100" t="n">
-        <v>503</v>
+        <v>609</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>3.24</v>
+        <v>1.76</v>
       </c>
       <c r="G100" t="n">
-        <v>9.9</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>20600</v>
+        <v>25200</v>
       </c>
       <c r="I100" t="n">
-        <v>70.736</v>
+        <v>77.376</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>2019</v>
       </c>
       <c r="C101" t="n">
-        <v>664</v>
+        <v>369</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.52</v>
+        <v>3.18</v>
       </c>
       <c r="G101" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
-        <v>19900</v>
+        <v>15600</v>
       </c>
       <c r="I101" t="n">
-        <v>66.80500000000001</v>
+        <v>69.051</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>2019</v>
       </c>
       <c r="C102" t="n">
-        <v>439</v>
+        <v>620</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>2.94</v>
+        <v>1.41</v>
       </c>
       <c r="G102" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>14600</v>
+        <v>19500</v>
       </c>
       <c r="I102" t="n">
-        <v>68.22199999999999</v>
+        <v>63.405</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>1.88</v>
+        <v>4.2</v>
       </c>
       <c r="G103" t="n">
-        <v>6.3</v>
+        <v>17.9</v>
       </c>
       <c r="H103" t="n">
-        <v>19100</v>
+        <v>15800</v>
       </c>
       <c r="I103" t="n">
-        <v>67.855</v>
+        <v>79.38800000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>2019</v>
       </c>
       <c r="C104" t="n">
-        <v>791</v>
+        <v>472</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -3661,60 +3661,60 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G104" t="n">
-        <v>5.6</v>
+        <v>14.1</v>
       </c>
       <c r="H104" t="n">
-        <v>30200</v>
+        <v>18800</v>
       </c>
       <c r="I104" t="n">
-        <v>91.223</v>
+        <v>80.565</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>390</v>
+        <v>555</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>8.4</v>
       </c>
       <c r="H105" t="n">
-        <v>13700</v>
+        <v>22500</v>
       </c>
       <c r="I105" t="n">
-        <v>71.64400000000001</v>
+        <v>80.709</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>2019</v>
       </c>
       <c r="C106" t="n">
-        <v>697</v>
+        <v>459</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -3723,184 +3723,184 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2.43</v>
+        <v>4.24</v>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H106" t="n">
-        <v>17900</v>
+        <v>13900</v>
       </c>
       <c r="I106" t="n">
-        <v>94.678</v>
+        <v>57.242</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>2019</v>
       </c>
       <c r="C107" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="G107" t="n">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="H107" t="n">
-        <v>23400</v>
+        <v>20600</v>
       </c>
       <c r="I107" t="n">
-        <v>91.876</v>
+        <v>70.736</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2019</v>
       </c>
       <c r="C108" t="n">
-        <v>336</v>
+        <v>664</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="H108" t="n">
-        <v>16500</v>
+        <v>19900</v>
       </c>
       <c r="I108" t="n">
-        <v>60.037</v>
+        <v>66.80500000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>2019</v>
       </c>
       <c r="C109" t="n">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2.53</v>
+        <v>2.94</v>
       </c>
       <c r="G109" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H109" t="n">
-        <v>17700</v>
+        <v>14600</v>
       </c>
       <c r="I109" t="n">
-        <v>65.764</v>
+        <v>68.22199999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>2019</v>
       </c>
       <c r="C110" t="n">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>3.7</v>
+        <v>1.88</v>
       </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="H110" t="n">
-        <v>17100</v>
+        <v>19100</v>
       </c>
       <c r="I110" t="n">
-        <v>54.822</v>
+        <v>67.855</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>449</v>
+        <v>390</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G111" t="n">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
-        <v>22800</v>
+        <v>13700</v>
       </c>
       <c r="I111" t="n">
-        <v>87.708</v>
+        <v>71.64400000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>2019</v>
       </c>
       <c r="C112" t="n">
-        <v>776</v>
+        <v>697</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -3909,60 +3909,60 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>2.09</v>
+        <v>2.43</v>
       </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
-        <v>26500</v>
+        <v>17900</v>
       </c>
       <c r="I112" t="n">
-        <v>82.616</v>
+        <v>94.678</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>2019</v>
       </c>
       <c r="C113" t="n">
-        <v>709</v>
+        <v>508</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>1.4</v>
+        <v>3.39</v>
       </c>
       <c r="G113" t="n">
         <v>4.4</v>
       </c>
       <c r="H113" t="n">
-        <v>25300</v>
+        <v>23400</v>
       </c>
       <c r="I113" t="n">
-        <v>73.849</v>
+        <v>91.876</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>2019</v>
       </c>
       <c r="C114" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3971,29 +3971,29 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="G114" t="n">
-        <v>11.3</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
-        <v>10200</v>
+        <v>16500</v>
       </c>
       <c r="I114" t="n">
-        <v>56.26</v>
+        <v>60.037</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C115" t="n">
-        <v>729</v>
+        <v>510</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -4002,29 +4002,29 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>2.52</v>
+        <v>2.53</v>
       </c>
       <c r="G115" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H115" t="n">
-        <v>22400</v>
+        <v>17700</v>
       </c>
       <c r="I115" t="n">
-        <v>98.07899999999999</v>
+        <v>65.764</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C116" t="n">
-        <v>543</v>
+        <v>280</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -4033,29 +4033,29 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H116" t="n">
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="I116" t="n">
-        <v>74.06100000000001</v>
+        <v>54.084</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C117" t="n">
-        <v>641</v>
+        <v>504</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4064,29 +4064,29 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>1.69</v>
+        <v>3.7</v>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H117" t="n">
-        <v>24400</v>
+        <v>17100</v>
       </c>
       <c r="I117" t="n">
-        <v>77.453</v>
+        <v>54.822</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C118" t="n">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -4095,29 +4095,29 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G118" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="H118" t="n">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="I118" t="n">
-        <v>69.229</v>
+        <v>53.729</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C119" t="n">
-        <v>637</v>
+        <v>449</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -4126,60 +4126,60 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="G119" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H119" t="n">
-        <v>17600</v>
+        <v>22800</v>
       </c>
       <c r="I119" t="n">
-        <v>63.653</v>
+        <v>87.708</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C120" t="n">
-        <v>499</v>
+        <v>709</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>4.13</v>
+        <v>1.4</v>
       </c>
       <c r="G120" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="H120" t="n">
-        <v>14700</v>
+        <v>25300</v>
       </c>
       <c r="I120" t="n">
-        <v>79.715</v>
+        <v>73.849</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C121" t="n">
-        <v>449</v>
+        <v>338</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -4188,60 +4188,60 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="G121" t="n">
-        <v>15.5</v>
+        <v>11.3</v>
       </c>
       <c r="H121" t="n">
-        <v>16500</v>
+        <v>10200</v>
       </c>
       <c r="I121" t="n">
-        <v>80.81</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>2020</v>
       </c>
       <c r="C122" t="n">
-        <v>538</v>
+        <v>432</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>2.17</v>
+        <v>3.02</v>
       </c>
       <c r="G122" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="H122" t="n">
-        <v>21700</v>
+        <v>11800</v>
       </c>
       <c r="I122" t="n">
-        <v>80.97499999999999</v>
+        <v>75.68600000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>2020</v>
       </c>
       <c r="C123" t="n">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -4250,153 +4250,153 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>4.07</v>
+        <v>1.92</v>
       </c>
       <c r="G123" t="n">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
-        <v>13600</v>
+        <v>16800</v>
       </c>
       <c r="I123" t="n">
-        <v>57.553</v>
+        <v>74.06100000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>2020</v>
       </c>
       <c r="C124" t="n">
-        <v>487</v>
+        <v>641</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>3.06</v>
+        <v>1.69</v>
       </c>
       <c r="G124" t="n">
-        <v>9.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
-        <v>19100</v>
+        <v>24400</v>
       </c>
       <c r="I124" t="n">
-        <v>71.039</v>
+        <v>77.453</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>2020</v>
       </c>
       <c r="C125" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="G125" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="H125" t="n">
-        <v>18900</v>
+        <v>15400</v>
       </c>
       <c r="I125" t="n">
-        <v>66.821</v>
+        <v>69.229</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>2020</v>
       </c>
       <c r="C126" t="n">
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>3.04</v>
+        <v>1.2</v>
       </c>
       <c r="G126" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="H126" t="n">
-        <v>14300</v>
+        <v>17600</v>
       </c>
       <c r="I126" t="n">
-        <v>68.315</v>
+        <v>63.653</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>2020</v>
       </c>
       <c r="C127" t="n">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1.94</v>
+        <v>4.13</v>
       </c>
       <c r="G127" t="n">
-        <v>8.5</v>
+        <v>17.6</v>
       </c>
       <c r="H127" t="n">
-        <v>18600</v>
+        <v>14700</v>
       </c>
       <c r="I127" t="n">
-        <v>68.04600000000001</v>
+        <v>79.715</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>790</v>
+        <v>449</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -4405,60 +4405,60 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="G128" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="H128" t="n">
-        <v>27400</v>
+        <v>16500</v>
       </c>
       <c r="I128" t="n">
-        <v>91.453</v>
+        <v>80.81</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>2020</v>
       </c>
       <c r="C129" t="n">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="G129" t="n">
-        <v>4.1</v>
+        <v>8</v>
       </c>
       <c r="H129" t="n">
-        <v>13700</v>
+        <v>21700</v>
       </c>
       <c r="I129" t="n">
-        <v>71.94199999999999</v>
+        <v>80.97499999999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>2020</v>
       </c>
       <c r="C130" t="n">
-        <v>642</v>
+        <v>433</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -4467,91 +4467,91 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2.21</v>
+        <v>4.07</v>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="H130" t="n">
-        <v>16000</v>
+        <v>13600</v>
       </c>
       <c r="I130" t="n">
-        <v>94.744</v>
+        <v>57.553</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>2020</v>
       </c>
       <c r="C131" t="n">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="G131" t="n">
-        <v>4.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>22500</v>
+        <v>19100</v>
       </c>
       <c r="I131" t="n">
-        <v>92.236</v>
+        <v>71.039</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>2020</v>
       </c>
       <c r="C132" t="n">
-        <v>834</v>
+        <v>625</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>2.09</v>
+        <v>2.35</v>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="H132" t="n">
-        <v>22700</v>
+        <v>18900</v>
       </c>
       <c r="I132" t="n">
-        <v>58.748</v>
+        <v>66.821</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>2020</v>
       </c>
       <c r="C133" t="n">
-        <v>346</v>
+        <v>478</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -4560,91 +4560,91 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="H133" t="n">
-        <v>16400</v>
+        <v>14300</v>
       </c>
       <c r="I133" t="n">
-        <v>60.043</v>
+        <v>68.315</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>2020</v>
       </c>
       <c r="C134" t="n">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="G134" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="H134" t="n">
-        <v>16500</v>
+        <v>18600</v>
       </c>
       <c r="I134" t="n">
-        <v>66.31</v>
+        <v>68.04600000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>2020</v>
       </c>
       <c r="C135" t="n">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>3.27</v>
+        <v>2.2</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H135" t="n">
-        <v>16300</v>
+        <v>13700</v>
       </c>
       <c r="I135" t="n">
-        <v>55.118</v>
+        <v>71.94199999999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>2020</v>
       </c>
       <c r="C136" t="n">
-        <v>431</v>
+        <v>642</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -4653,29 +4653,29 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="G136" t="n">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="H136" t="n">
-        <v>22300</v>
+        <v>16000</v>
       </c>
       <c r="I136" t="n">
-        <v>87.977</v>
+        <v>94.744</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>2020</v>
       </c>
       <c r="C137" t="n">
-        <v>726</v>
+        <v>533</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -4684,29 +4684,29 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>3.18</v>
       </c>
       <c r="G137" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H137" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="I137" t="n">
-        <v>82.974</v>
+        <v>92.236</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>2020</v>
       </c>
       <c r="C138" t="n">
-        <v>706</v>
+        <v>346</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -4715,215 +4715,215 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1.39</v>
+        <v>2.53</v>
       </c>
       <c r="G138" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
-        <v>24300</v>
+        <v>16400</v>
       </c>
       <c r="I138" t="n">
-        <v>73.91500000000001</v>
+        <v>60.043</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>2020</v>
       </c>
       <c r="C139" t="n">
-        <v>427</v>
+        <v>509</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="G139" t="n">
-        <v>9.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="H139" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="I139" t="n">
-        <v>56.446</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C140" t="n">
-        <v>755</v>
+        <v>290</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2.47</v>
+        <v>1.9</v>
       </c>
       <c r="G140" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="H140" t="n">
-        <v>24400</v>
+        <v>16000</v>
       </c>
       <c r="I140" t="n">
-        <v>98.117</v>
+        <v>54.194</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C141" t="n">
-        <v>570</v>
+        <v>487</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>1.84</v>
+        <v>3.27</v>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H141" t="n">
-        <v>18200</v>
+        <v>16300</v>
       </c>
       <c r="I141" t="n">
-        <v>74.214</v>
+        <v>55.118</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C142" t="n">
-        <v>651</v>
+        <v>478</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="G142" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="H142" t="n">
-        <v>25400</v>
+        <v>15000</v>
       </c>
       <c r="I142" t="n">
-        <v>77.544</v>
+        <v>53.76</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C143" t="n">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="H143" t="n">
-        <v>16800</v>
+        <v>22300</v>
       </c>
       <c r="I143" t="n">
-        <v>69.41500000000001</v>
+        <v>87.977</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C144" t="n">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="G144" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="H144" t="n">
-        <v>19300</v>
+        <v>24300</v>
       </c>
       <c r="I144" t="n">
-        <v>63.912</v>
+        <v>73.91500000000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C145" t="n">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -4932,122 +4932,122 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>14.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>15900</v>
+        <v>10000</v>
       </c>
       <c r="I145" t="n">
-        <v>80.038</v>
+        <v>56.446</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>2021</v>
       </c>
       <c r="C146" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1.73</v>
+        <v>2.78</v>
       </c>
       <c r="G146" t="n">
-        <v>14.9</v>
+        <v>5.2</v>
       </c>
       <c r="H146" t="n">
-        <v>18300</v>
+        <v>13500</v>
       </c>
       <c r="I146" t="n">
-        <v>81.056</v>
+        <v>76.02500000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>2021</v>
       </c>
       <c r="C147" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="G147" t="n">
-        <v>7.9</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
-        <v>23200</v>
+        <v>18200</v>
       </c>
       <c r="I147" t="n">
-        <v>81.242</v>
+        <v>74.214</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>2021</v>
       </c>
       <c r="C148" t="n">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>3.86</v>
+        <v>1.8</v>
       </c>
       <c r="G148" t="n">
-        <v>7.5</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
-        <v>15500</v>
+        <v>25400</v>
       </c>
       <c r="I148" t="n">
-        <v>57.878</v>
+        <v>77.544</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>2021</v>
       </c>
       <c r="C149" t="n">
-        <v>495</v>
+        <v>395</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5056,29 +5056,29 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>3.01</v>
+        <v>2.32</v>
       </c>
       <c r="G149" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="H149" t="n">
-        <v>20600</v>
+        <v>16800</v>
       </c>
       <c r="I149" t="n">
-        <v>71.346</v>
+        <v>69.41500000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>2021</v>
       </c>
       <c r="C150" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -5087,91 +5087,91 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>2.26</v>
+        <v>1.14</v>
       </c>
       <c r="G150" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="H150" t="n">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="I150" t="n">
-        <v>66.85599999999999</v>
+        <v>63.912</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>2021</v>
       </c>
       <c r="C151" t="n">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>2.75</v>
+        <v>4.24</v>
       </c>
       <c r="G151" t="n">
-        <v>7.6</v>
+        <v>14.7</v>
       </c>
       <c r="H151" t="n">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="I151" t="n">
-        <v>68.42100000000001</v>
+        <v>80.038</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>2021</v>
       </c>
       <c r="C152" t="n">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="G152" t="n">
-        <v>7.1</v>
+        <v>14.9</v>
       </c>
       <c r="H152" t="n">
-        <v>20400</v>
+        <v>18300</v>
       </c>
       <c r="I152" t="n">
-        <v>68.249</v>
+        <v>81.056</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>2021</v>
       </c>
       <c r="C153" t="n">
-        <v>793</v>
+        <v>564</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -5180,91 +5180,91 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="G153" t="n">
-        <v>5.3</v>
+        <v>7.9</v>
       </c>
       <c r="H153" t="n">
-        <v>30200</v>
+        <v>23200</v>
       </c>
       <c r="I153" t="n">
-        <v>91.672</v>
+        <v>81.242</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>2021</v>
       </c>
       <c r="C154" t="n">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>2.05</v>
+        <v>3.86</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H154" t="n">
-        <v>14600</v>
+        <v>15500</v>
       </c>
       <c r="I154" t="n">
-        <v>72.245</v>
+        <v>57.878</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>2021</v>
       </c>
       <c r="C155" t="n">
-        <v>611</v>
+        <v>495</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1.8</v>
+        <v>3.01</v>
       </c>
       <c r="G155" t="n">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="H155" t="n">
-        <v>17600</v>
+        <v>20600</v>
       </c>
       <c r="I155" t="n">
-        <v>94.81</v>
+        <v>71.346</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
       </c>
       <c r="C156" t="n">
-        <v>515</v>
+        <v>650</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -5273,29 +5273,29 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H156" t="n">
-        <v>24200</v>
+        <v>20300</v>
       </c>
       <c r="I156" t="n">
-        <v>92.572</v>
+        <v>66.85599999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2021</v>
       </c>
       <c r="C157" t="n">
-        <v>835</v>
+        <v>461</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -5304,29 +5304,29 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="G157" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="H157" t="n">
-        <v>25000</v>
+        <v>15700</v>
       </c>
       <c r="I157" t="n">
-        <v>58.995</v>
+        <v>68.42100000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>2021</v>
       </c>
       <c r="C158" t="n">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -5335,60 +5335,60 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="G158" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="H158" t="n">
-        <v>17900</v>
+        <v>20400</v>
       </c>
       <c r="I158" t="n">
-        <v>60.075</v>
+        <v>68.249</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>2021</v>
       </c>
       <c r="C159" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="G159" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
-        <v>17900</v>
+        <v>14600</v>
       </c>
       <c r="I159" t="n">
-        <v>66.849</v>
+        <v>72.245</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>2021</v>
       </c>
       <c r="C160" t="n">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -5397,29 +5397,29 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>3.13</v>
+        <v>1.8</v>
       </c>
       <c r="G160" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="I160" t="n">
-        <v>55.427</v>
+        <v>94.81</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>418</v>
+        <v>515</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -5428,91 +5428,91 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
       <c r="G161" t="n">
-        <v>8.9</v>
+        <v>4.2</v>
       </c>
       <c r="H161" t="n">
         <v>24200</v>
       </c>
       <c r="I161" t="n">
-        <v>88.238</v>
+        <v>92.572</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>2021</v>
       </c>
       <c r="C162" t="n">
-        <v>799</v>
+        <v>370</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1.74</v>
+        <v>2.88</v>
       </c>
       <c r="G162" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H162" t="n">
-        <v>26900</v>
+        <v>17900</v>
       </c>
       <c r="I162" t="n">
-        <v>83.32299999999999</v>
+        <v>60.075</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>2021</v>
       </c>
       <c r="C163" t="n">
-        <v>704</v>
+        <v>510</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>1.34</v>
+        <v>2.33</v>
       </c>
       <c r="G163" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="H163" t="n">
-        <v>25300</v>
+        <v>17900</v>
       </c>
       <c r="I163" t="n">
-        <v>73.996</v>
+        <v>66.849</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>2021</v>
       </c>
       <c r="C164" t="n">
-        <v>442</v>
+        <v>302</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -5521,29 +5521,29 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>3.9</v>
+        <v>2.19</v>
       </c>
       <c r="G164" t="n">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="H164" t="n">
-        <v>11000</v>
+        <v>17600</v>
       </c>
       <c r="I164" t="n">
-        <v>56.651</v>
+        <v>54.329</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C165" t="n">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -5552,28 +5552,30 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2.22</v>
+        <v>3.13</v>
       </c>
       <c r="G165" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="H165" t="n">
-        <v>26700</v>
+        <v>18200</v>
       </c>
       <c r="I165" t="n">
-        <v>98.15300000000001</v>
+        <v>55.427</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C166" t="inlineStr"/>
+        <v>2021</v>
+      </c>
+      <c r="C166" t="n">
+        <v>497</v>
+      </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
@@ -5581,29 +5583,29 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="H166" t="n">
-        <v>19300</v>
+        <v>15900</v>
       </c>
       <c r="I166" t="n">
-        <v>74.377</v>
+        <v>53.82</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C167" t="n">
-        <v>606</v>
+        <v>418</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -5612,29 +5614,29 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>8.9</v>
       </c>
       <c r="H167" t="n">
-        <v>27400</v>
+        <v>24200</v>
       </c>
       <c r="I167" t="n">
-        <v>77.648</v>
+        <v>88.238</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C168" t="n">
-        <v>373</v>
+        <v>704</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -5643,29 +5645,29 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="G168" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H168" t="n">
-        <v>18200</v>
+        <v>25300</v>
       </c>
       <c r="I168" t="n">
-        <v>69.60899999999999</v>
+        <v>73.996</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C169" t="n">
-        <v>622</v>
+        <v>442</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -5674,89 +5676,89 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.87</v>
+        <v>3.9</v>
       </c>
       <c r="G169" t="n">
-        <v>4.5</v>
+        <v>11.2</v>
       </c>
       <c r="H169" t="n">
-        <v>21900</v>
+        <v>11000</v>
       </c>
       <c r="I169" t="n">
-        <v>64.18300000000001</v>
+        <v>56.651</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>2022</v>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="n">
+        <v>488</v>
+      </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>5.6</v>
+        <v>4.77</v>
       </c>
       <c r="G170" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="H170" t="n">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="I170" t="n">
-        <v>80.357</v>
+        <v>76.363</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>2022</v>
       </c>
-      <c r="C171" t="n">
-        <v>466</v>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G171" t="n">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="H171" t="n">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="I171" t="n">
-        <v>81.304</v>
+        <v>74.377</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>2022</v>
       </c>
       <c r="C172" t="n">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -5765,29 +5767,29 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="G172" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
-        <v>24900</v>
+        <v>27400</v>
       </c>
       <c r="I172" t="n">
-        <v>81.509</v>
+        <v>77.648</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>2022</v>
       </c>
       <c r="C173" t="n">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -5796,61 +5798,59 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>3.34</v>
+        <v>2.3</v>
       </c>
       <c r="G173" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="H173" t="n">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="I173" t="n">
-        <v>58.219</v>
+        <v>69.60899999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>2022</v>
       </c>
       <c r="C174" t="n">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>2.2</v>
+        <v>0.87</v>
       </c>
       <c r="G174" t="n">
-        <v>8.1</v>
+        <v>4.5</v>
       </c>
       <c r="H174" t="n">
-        <v>23200</v>
+        <v>21900</v>
       </c>
       <c r="I174" t="n">
-        <v>71.657</v>
+        <v>64.18300000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>2022</v>
       </c>
-      <c r="C175" t="n">
-        <v>673</v>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
         <v>1</v>
       </c>
@@ -5858,91 +5858,91 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>2.19</v>
+        <v>5.6</v>
       </c>
       <c r="G175" t="n">
-        <v>6.3</v>
+        <v>12.5</v>
       </c>
       <c r="H175" t="n">
-        <v>22700</v>
+        <v>18100</v>
       </c>
       <c r="I175" t="n">
-        <v>66.911</v>
+        <v>80.357</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>2022</v>
       </c>
       <c r="C176" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>2.23</v>
+        <v>1.52</v>
       </c>
       <c r="G176" t="n">
-        <v>6.9</v>
+        <v>13</v>
       </c>
       <c r="H176" t="n">
-        <v>17600</v>
+        <v>20000</v>
       </c>
       <c r="I176" t="n">
-        <v>68.54000000000001</v>
+        <v>81.304</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>2022</v>
       </c>
       <c r="C177" t="n">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="H177" t="n">
-        <v>21900</v>
+        <v>24900</v>
       </c>
       <c r="I177" t="n">
-        <v>68.465</v>
+        <v>81.509</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>2022</v>
       </c>
       <c r="C178" t="n">
-        <v>721</v>
+        <v>478</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -5951,29 +5951,29 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>1.23</v>
+        <v>3.34</v>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H178" t="n">
-        <v>32000</v>
+        <v>17600</v>
       </c>
       <c r="I178" t="n">
-        <v>91.881</v>
+        <v>58.219</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>2022</v>
       </c>
       <c r="C179" t="n">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -5982,29 +5982,29 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="G179" t="n">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="H179" t="n">
-        <v>16400</v>
+        <v>23200</v>
       </c>
       <c r="I179" t="n">
-        <v>72.55200000000001</v>
+        <v>71.657</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>2022</v>
       </c>
       <c r="C180" t="n">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -6013,60 +6013,60 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="H180" t="n">
-        <v>19200</v>
+        <v>22700</v>
       </c>
       <c r="I180" t="n">
-        <v>94.875</v>
+        <v>66.911</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>2022</v>
       </c>
       <c r="C181" t="n">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="G181" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H181" t="n">
-        <v>26900</v>
+        <v>17600</v>
       </c>
       <c r="I181" t="n">
-        <v>92.886</v>
+        <v>68.54000000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>2022</v>
       </c>
       <c r="C182" t="n">
-        <v>803</v>
+        <v>465</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -6075,29 +6075,29 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="G182" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="H182" t="n">
-        <v>27500</v>
+        <v>21900</v>
       </c>
       <c r="I182" t="n">
-        <v>59.256</v>
+        <v>68.465</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>2022</v>
       </c>
       <c r="C183" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -6106,29 +6106,29 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>2.8</v>
+        <v>1.88</v>
       </c>
       <c r="G183" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H183" t="n">
-        <v>20300</v>
+        <v>16400</v>
       </c>
       <c r="I183" t="n">
-        <v>60.134</v>
+        <v>72.55200000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>2022</v>
       </c>
       <c r="C184" t="n">
-        <v>508</v>
+        <v>618</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -6137,29 +6137,29 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="G184" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H184" t="n">
-        <v>20200</v>
+        <v>19200</v>
       </c>
       <c r="I184" t="n">
-        <v>67.381</v>
+        <v>94.875</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>2022</v>
       </c>
       <c r="C185" t="n">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -6168,60 +6168,60 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>2.87</v>
+        <v>2.37</v>
       </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H185" t="n">
-        <v>20200</v>
+        <v>26900</v>
       </c>
       <c r="I185" t="n">
-        <v>55.751</v>
+        <v>92.886</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>2022</v>
       </c>
       <c r="C186" t="n">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="G186" t="n">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="H186" t="n">
-        <v>26000</v>
+        <v>20300</v>
       </c>
       <c r="I186" t="n">
-        <v>88.492</v>
+        <v>60.134</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>2022</v>
       </c>
       <c r="C187" t="n">
-        <v>768</v>
+        <v>508</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -6230,29 +6230,29 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="G187" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H187" t="n">
-        <v>29700</v>
+        <v>20200</v>
       </c>
       <c r="I187" t="n">
-        <v>83.664</v>
+        <v>67.381</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>2022</v>
       </c>
       <c r="C188" t="n">
-        <v>677</v>
+        <v>303</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -6261,46 +6261,170 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1.27</v>
+        <v>2.7</v>
       </c>
       <c r="G188" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H188" t="n">
-        <v>27300</v>
+        <v>19900</v>
       </c>
       <c r="I188" t="n">
-        <v>74.092</v>
+        <v>54.489</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>2022</v>
       </c>
       <c r="C189" t="n">
+        <v>487</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4</v>
+      </c>
+      <c r="H189" t="n">
+        <v>20200</v>
+      </c>
+      <c r="I189" t="n">
+        <v>55.751</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C190" t="n">
+        <v>478</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>17900</v>
+      </c>
+      <c r="I190" t="n">
+        <v>53.909</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C191" t="n">
+        <v>395</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H191" t="n">
+        <v>26000</v>
+      </c>
+      <c r="I191" t="n">
+        <v>88.492</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C192" t="n">
+        <v>677</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>27300</v>
+      </c>
+      <c r="I192" t="n">
+        <v>74.092</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C193" t="n">
         <v>473</v>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
         <v>3.4</v>
       </c>
-      <c r="G189" t="n">
+      <c r="G193" t="n">
         <v>9.6</v>
       </c>
-      <c r="H189" t="n">
+      <c r="H193" t="n">
         <v>12300</v>
       </c>
-      <c r="I189" t="n">
+      <c r="I193" t="n">
         <v>56.873</v>
       </c>
     </row>
